--- a/EXCEL FILES/CVA Calculation.xlsx
+++ b/EXCEL FILES/CVA Calculation.xlsx
@@ -1,7 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PS TOOL DX\EXCEL FILES\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="570" yWindow="180" windowWidth="29040" windowHeight="13695"/>
   </bookViews>
@@ -49,7 +54,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Credit Value Adjustment Risk Calculation for 31.12.2018</t>
+    <t>Credit Value Adjustment Risk Calculation for 21.11.2023</t>
   </si>
   <si>
     <t>Formel für CVA</t>
@@ -109,13 +114,10 @@
     <t>BNP PARIBAS GROUP</t>
   </si>
   <si>
-    <t>ZUERCHER KANTONALBANK, ZUERICH</t>
+    <t>CITIBANK</t>
   </si>
   <si>
-    <t>DAIMLER AG STUTTGART</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Credit Value Adjustment Risk basic data on  31.12.2018</t>
+    <t xml:space="preserve">Credit Value Adjustment Risk basic data on  21.11.2023</t>
   </si>
   <si>
     <t>BusinessTypeName</t>
@@ -166,13 +168,13 @@
     <t>FX TRANSACTIONS</t>
   </si>
   <si>
-    <t>960891000003465116</t>
+    <t>597850494021584597</t>
   </si>
   <si>
-    <t>CHINA CONSTRUCTION BANK CORP. LONDON BRANCH</t>
+    <t>BNP PARIBAS PARIS</t>
   </si>
   <si>
-    <t>3011931</t>
+    <t>3026974</t>
   </si>
   <si>
     <t>Customer</t>
@@ -184,19 +186,37 @@
     <t>2</t>
   </si>
   <si>
-    <t>3011797</t>
+    <t>3026976</t>
   </si>
   <si>
-    <t>597850494021584597</t>
+    <t>3026978</t>
   </si>
   <si>
-    <t>BNP PARIBAS PARIS</t>
+    <t>3026980</t>
   </si>
   <si>
-    <t>3011840</t>
+    <t>3026982</t>
   </si>
   <si>
-    <t>3011939</t>
+    <t>421891000003464141</t>
+  </si>
+  <si>
+    <t>CITIBANK NA LONDON</t>
+  </si>
+  <si>
+    <t>3026984</t>
+  </si>
+  <si>
+    <t>3026964</t>
+  </si>
+  <si>
+    <t>3026966</t>
+  </si>
+  <si>
+    <t>3026968</t>
+  </si>
+  <si>
+    <t>INTEREST RATE SWAPS</t>
   </si>
   <si>
     <t>689891000003464863</t>
@@ -205,172 +225,7 @@
     <t>CHINA CONSTRUCTION BANK H.O.</t>
   </si>
   <si>
-    <t>3008897</t>
-  </si>
-  <si>
-    <t>3011644</t>
-  </si>
-  <si>
-    <t>3011862</t>
-  </si>
-  <si>
-    <t>3011866</t>
-  </si>
-  <si>
-    <t>431891000003464020</t>
-  </si>
-  <si>
-    <t>3011942</t>
-  </si>
-  <si>
-    <t>AAA</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3008443</t>
-  </si>
-  <si>
-    <t>3011904</t>
-  </si>
-  <si>
-    <t>3011902</t>
-  </si>
-  <si>
-    <t>3011882</t>
-  </si>
-  <si>
-    <t>3008908</t>
-  </si>
-  <si>
-    <t>3011870</t>
-  </si>
-  <si>
-    <t>3011819</t>
-  </si>
-  <si>
-    <t>3008913</t>
-  </si>
-  <si>
-    <t>3011921</t>
-  </si>
-  <si>
-    <t>3011833</t>
-  </si>
-  <si>
-    <t>3011660</t>
-  </si>
-  <si>
-    <t>3008899</t>
-  </si>
-  <si>
-    <t>3008444</t>
-  </si>
-  <si>
-    <t>3011856</t>
-  </si>
-  <si>
-    <t>3011872</t>
-  </si>
-  <si>
-    <t>3011842</t>
-  </si>
-  <si>
-    <t>3011948</t>
-  </si>
-  <si>
-    <t>3011684</t>
-  </si>
-  <si>
-    <t>3008926</t>
-  </si>
-  <si>
-    <t>3011914</t>
-  </si>
-  <si>
-    <t>3007557</t>
-  </si>
-  <si>
-    <t>3011929</t>
-  </si>
-  <si>
-    <t>3011801</t>
-  </si>
-  <si>
-    <t>3008448</t>
-  </si>
-  <si>
-    <t>3011827</t>
-  </si>
-  <si>
-    <t>3008898</t>
-  </si>
-  <si>
-    <t>3011844</t>
-  </si>
-  <si>
-    <t>3011923</t>
-  </si>
-  <si>
-    <t>3011864</t>
-  </si>
-  <si>
-    <t>3011916</t>
-  </si>
-  <si>
-    <t>3008894</t>
-  </si>
-  <si>
-    <t>INTEREST RATE SWAPS</t>
-  </si>
-  <si>
-    <t>6000012</t>
-  </si>
-  <si>
-    <t>6000016</t>
-  </si>
-  <si>
-    <t>6000017</t>
-  </si>
-  <si>
-    <t>984890000000288625</t>
-  </si>
-  <si>
-    <t>DAIMLER AG</t>
-  </si>
-  <si>
-    <t>05593032017091200003271</t>
-  </si>
-  <si>
-    <t>05593032017091300003273</t>
-  </si>
-  <si>
-    <t>05593032017091100003268</t>
-  </si>
-  <si>
-    <t>05593032017060600003189</t>
-  </si>
-  <si>
-    <t>05593032017091400003274</t>
-  </si>
-  <si>
-    <t>05593032016092200003015</t>
-  </si>
-  <si>
-    <t>05593032017091100003270</t>
-  </si>
-  <si>
-    <t>05593032017060700003214</t>
-  </si>
-  <si>
-    <t>05593032017060600003190</t>
-  </si>
-  <si>
-    <t>05593032017090800003267</t>
-  </si>
-  <si>
-    <t>05593032017091100003269</t>
+    <t>6000018</t>
   </si>
 </sst>
 </file>
@@ -385,7 +240,7 @@
     <numFmt numFmtId="167" formatCode="0.0000"/>
     <numFmt numFmtId="168" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,6 +307,17 @@
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1009,16 +875,16 @@
       <selection activeCell="A1" sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.43" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42188" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.29" customWidth="1"/>
-    <col min="2" max="2" width="21.43" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="6" width="30.71" customWidth="1"/>
-    <col min="7" max="7" width="29.14" customWidth="1"/>
-    <col min="8" max="8" width="35.71" customWidth="1"/>
-    <col min="9" max="9" width="30.71" customWidth="1"/>
-    <col min="10" max="10" width="27.86" customWidth="1"/>
+    <col min="1" max="1" width="29.28125" customWidth="1"/>
+    <col min="2" max="2" width="21.42188" customWidth="1"/>
+    <col min="3" max="3" width="18.00391" customWidth="1"/>
+    <col min="4" max="6" width="30.71094" customWidth="1"/>
+    <col min="7" max="7" width="29.14063" customWidth="1"/>
+    <col min="8" max="8" width="35.71094" customWidth="1"/>
+    <col min="9" max="9" width="30.71094" customWidth="1"/>
+    <col min="10" max="10" width="27.85156" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1063,12 +929,12 @@
     </row>
     <row r="5">
       <c r="F5" s="5">
-        <f>SUM(E12:E15)</f>
-        <v>80813489.14320001</v>
+        <f>SUM(E12:E14)</f>
+        <v>9326421.4824248031</v>
       </c>
       <c r="G5" s="6">
-        <f>COUNTA(B12:B15)</f>
-        <v>4</v>
+        <f>COUNTA(B12:B14)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1089,16 +955,16 @@
     </row>
     <row r="8">
       <c r="F8" s="8">
-        <f>SUM(I12:I15)^2</f>
-        <v>8510898809.1180162</v>
+        <f>SUM(I12:I14)^2</f>
+        <v>317232408.00257635</v>
       </c>
       <c r="G8" s="8">
-        <f>SUM(J12:J15)</f>
-        <v>12870531587.300579</v>
+        <f>SUM(J12:J14)</f>
+        <v>947951967.65363741</v>
       </c>
       <c r="H8" s="9">
         <f>2.33*SQRT(F8+G8)</f>
-        <v>340701.69867365924</v>
+        <v>82876.772723122005</v>
       </c>
       <c r="I8" s="10"/>
     </row>
@@ -1149,30 +1015,30 @@
         <v>0.0080000000000000002</v>
       </c>
       <c r="D12" s="17">
-        <v>0.31009999999999999</v>
+        <v>2.9268000000000001</v>
       </c>
       <c r="E12" s="18">
-        <v>45331876.50500001</v>
+        <v>1632183.1593058715</v>
       </c>
       <c r="F12" s="19">
-        <f t="shared" ref="F12:F15" si="0">(1-EXP(-D12/20))/(D12/20)</f>
-        <v>0.99228741267288667</v>
+        <f t="shared" ref="F12:F14" si="0">(1-EXP(-D12/20))/(D12/20)</f>
+        <v>0.93027238275102542</v>
       </c>
       <c r="G12" s="20">
-        <f t="shared" ref="G12:G15" si="1">E12*F12</f>
-        <v>44982250.448753282</v>
+        <f t="shared" ref="G12:G14" si="1">E12*F12</f>
+        <v>1518374.9166935696</v>
       </c>
       <c r="H12" s="20">
-        <f t="shared" ref="H12:H15" si="2">C12*D12*G12</f>
-        <v>111591.96691326714</v>
+        <f t="shared" ref="H12:H14" si="2">C12*D12*G12</f>
+        <v>35551.837649429923</v>
       </c>
       <c r="I12" s="20">
-        <f t="shared" ref="I12:I15" si="3">H12/2</f>
-        <v>55795.98345663357</v>
+        <f t="shared" ref="I12:I14" si="3">H12/2</f>
+        <v>17775.918824714961</v>
       </c>
       <c r="J12" s="20">
-        <f t="shared" ref="J12:J15" si="4">(H12^2)*3/4</f>
-        <v>9339575309.6787815</v>
+        <f t="shared" ref="J12:J14" si="4">(H12^2)*3/4</f>
+        <v>947949870.18856716</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1">
@@ -1186,30 +1052,30 @@
         <v>0.0080000000000000002</v>
       </c>
       <c r="D13" s="17">
-        <v>0.023199999999999998</v>
+        <v>0.00089999999999999998</v>
       </c>
       <c r="E13" s="18">
-        <v>15655516.337200001</v>
+        <v>6666114.3461603522</v>
       </c>
       <c r="F13" s="19">
         <f t="shared" si="0"/>
-        <v>0.99942022420159971</v>
+        <v>0.99997750033775656</v>
       </c>
       <c r="G13" s="20">
         <f t="shared" si="1"/>
-        <v>15646439.647716232</v>
+        <v>6665964.3608390875</v>
       </c>
       <c r="H13" s="20">
         <f t="shared" si="2"/>
-        <v>2903.9791986161322</v>
+        <v>47.994943398041428</v>
       </c>
       <c r="I13" s="20">
         <f t="shared" si="3"/>
-        <v>1451.9895993080661</v>
+        <v>23.997471699020714</v>
       </c>
       <c r="J13" s="20">
         <f t="shared" si="4"/>
-        <v>6324821.3894963954</v>
+        <v>1727.6359438359004</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1">
@@ -1217,74 +1083,49 @@
         <v>20</v>
       </c>
       <c r="B14" s="15">
-        <v>1092</v>
+        <v>1023</v>
       </c>
       <c r="C14" s="16">
-        <v>0.0070000000000000001</v>
+        <v>0.0080000000000000002</v>
       </c>
       <c r="D14" s="17">
-        <v>0.097900000000000001</v>
+        <v>0.0027000000000000001</v>
       </c>
       <c r="E14" s="18">
-        <v>2159150.014</v>
+        <v>1028123.9769585794</v>
       </c>
       <c r="F14" s="19">
         <f t="shared" si="0"/>
-        <v>0.99755648862190038</v>
+        <v>0.99993250303722059</v>
       </c>
       <c r="G14" s="20">
         <f t="shared" si="1"/>
-        <v>2153874.1063737669</v>
+        <v>1028054.581712774</v>
       </c>
       <c r="H14" s="20">
         <f t="shared" si="2"/>
-        <v>1476.0499250979424</v>
+        <v>22.205978964995921</v>
       </c>
       <c r="I14" s="20">
         <f t="shared" si="3"/>
-        <v>738.02496254897119</v>
+        <v>11.102989482497961</v>
       </c>
       <c r="J14" s="20">
         <f t="shared" si="4"/>
-        <v>1634042.5360362309</v>
+        <v>369.82912634538098</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1">
-      <c r="A15" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="15">
-        <v>1093</v>
-      </c>
-      <c r="C15" s="16">
-        <v>0.0080000000000000002</v>
-      </c>
-      <c r="D15" s="17">
-        <v>0.4909</v>
-      </c>
-      <c r="E15" s="18">
-        <v>17666946.287</v>
-      </c>
-      <c r="F15" s="19">
-        <f t="shared" si="0"/>
-        <v>0.98782729637863953</v>
-      </c>
-      <c r="G15" s="20">
-        <f t="shared" si="1"/>
-        <v>17451891.785953853</v>
-      </c>
-      <c r="H15" s="20">
-        <f t="shared" si="2"/>
-        <v>68537.069421797976</v>
-      </c>
-      <c r="I15" s="20">
-        <f t="shared" si="3"/>
-        <v>34268.534710898988</v>
-      </c>
-      <c r="J15" s="20">
-        <f t="shared" si="4"/>
-        <v>3522997413.6962662</v>
-      </c>
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
     </row>
     <row r="16" s="1" customFormat="1">
       <c r="A16" s="14"/>
@@ -4850,28 +4691,27 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.86" customWidth="1"/>
-    <col min="2" max="2" width="13.86" customWidth="1"/>
-    <col min="3" max="3" width="49" customWidth="1"/>
-    <col min="4" max="4" width="12.86" customWidth="1"/>
-    <col min="5" max="5" width="42.43" customWidth="1"/>
-    <col min="6" max="6" width="22.86" style="23" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="16.43" customWidth="1"/>
-    <col min="9" max="9" width="20.14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.86" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.14" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.57" style="21" customWidth="1"/>
-    <col min="14" max="14" width="27.29" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.71" style="21" customWidth="1"/>
+    <col min="1" max="1" width="38.85156" customWidth="1"/>
+    <col min="2" max="2" width="13.85156" customWidth="1"/>
+    <col min="3" max="3" width="49.00391" customWidth="1"/>
+    <col min="4" max="4" width="12.85156" customWidth="1"/>
+    <col min="5" max="5" width="42.42188" customWidth="1"/>
+    <col min="6" max="6" width="22.85156" style="23" customWidth="1"/>
+    <col min="7" max="7" width="17.00391" customWidth="1"/>
+    <col min="8" max="8" width="16.42188" customWidth="1"/>
+    <col min="9" max="9" width="20.14063" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.00391" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85156" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.14063" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.57422" style="21" customWidth="1"/>
+    <col min="14" max="14" width="27.28125" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.71094" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -4890,148 +4730,148 @@
     </row>
     <row r="2">
       <c r="A2" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="C2" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="D2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="E2" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="F2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="G2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="H2" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="I2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="J2" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="K2" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="L2" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="M2" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="N2" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="O2" s="29" t="s">
         <v>36</v>
-      </c>
-      <c r="O2" s="29" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>1004</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="B3">
-        <v>1000</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>39</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="23" t="s">
-        <v>41</v>
-      </c>
       <c r="G3" s="30">
-        <v>43468</v>
+        <v>45254</v>
       </c>
       <c r="H3">
         <v>0.0082000000000000007</v>
       </c>
       <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
         <v>42</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>43</v>
-      </c>
-      <c r="K3" t="s">
-        <v>44</v>
       </c>
       <c r="L3">
         <v>0.0080000000000000002</v>
       </c>
       <c r="M3">
-        <v>8736676.5700000003</v>
+        <v>-10009.25</v>
       </c>
       <c r="N3">
-        <v>71640.75</v>
+        <v>-82.079999999999998</v>
       </c>
       <c r="O3">
-        <v>174733.53140000001</v>
+        <v>1027044.1429585794</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>1004</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
         <v>38</v>
       </c>
-      <c r="B4">
-        <v>1000</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>39</v>
       </c>
-      <c r="E4" t="s">
-        <v>40</v>
-      </c>
       <c r="F4" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="30">
-        <v>43468</v>
+        <v>45254</v>
       </c>
       <c r="H4">
         <v>0.0082000000000000007</v>
       </c>
       <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
         <v>42</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>43</v>
-      </c>
-      <c r="K4" t="s">
-        <v>44</v>
       </c>
       <c r="L4" s="31">
         <v>0.0080000000000000002</v>
       </c>
       <c r="M4" s="21">
-        <v>131050148.52</v>
+        <v>-15846.959999999999</v>
       </c>
       <c r="N4" s="21">
-        <v>1074611.22</v>
+        <v>-129.94999999999999</v>
       </c>
       <c r="O4" s="21">
-        <v>2621002.9704</v>
+        <v>1035216.9369585794</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>1004</v>
@@ -5040,327 +4880,327 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G5" s="30">
-        <v>43467</v>
+        <v>45254</v>
       </c>
       <c r="H5">
-        <v>0.0054999999999999997</v>
+        <v>0.0082000000000000007</v>
       </c>
       <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
         <v>42</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>43</v>
-      </c>
-      <c r="K5" t="s">
-        <v>44</v>
       </c>
       <c r="L5" s="31">
         <v>0.0080000000000000002</v>
       </c>
       <c r="M5" s="21">
-        <v>39315044.560000002</v>
+        <v>-15013.049999999999</v>
       </c>
       <c r="N5" s="21">
-        <v>216232.75</v>
+        <v>-123.11</v>
       </c>
       <c r="O5" s="21">
-        <v>786300.89120000007</v>
+        <v>1034049.4629585794</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <v>1004</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
         <v>38</v>
       </c>
-      <c r="B6">
-        <v>1000</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>39</v>
       </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
       <c r="F6" s="23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G6" s="30">
-        <v>43469</v>
+        <v>45254</v>
       </c>
       <c r="H6">
-        <v>0.010999999999999999</v>
+        <v>0.0082000000000000007</v>
       </c>
       <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
         <v>42</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>43</v>
-      </c>
-      <c r="K6" t="s">
-        <v>44</v>
       </c>
       <c r="L6" s="31">
         <v>0.0080000000000000002</v>
       </c>
       <c r="M6" s="21">
-        <v>174733531.36000001</v>
+        <v>-1735</v>
       </c>
       <c r="N6" s="21">
-        <v>1922068.8400000001</v>
+        <v>-14.23</v>
       </c>
       <c r="O6" s="21">
-        <v>3494670.6272000005</v>
+        <v>265817.11016923061</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7">
+        <v>1004</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
         <v>38</v>
       </c>
-      <c r="B7">
-        <v>1000</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>50</v>
-      </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G7" s="30">
-        <v>43516</v>
+        <v>45252</v>
       </c>
       <c r="H7">
-        <v>0.1396</v>
+        <v>0.0027000000000000001</v>
       </c>
       <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" t="s">
         <v>42</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>43</v>
-      </c>
-      <c r="K7" t="s">
-        <v>44</v>
       </c>
       <c r="L7" s="31">
         <v>0.0080000000000000002</v>
       </c>
       <c r="M7" s="21">
-        <v>18199024.530000001</v>
+        <v>-8310.9400000000005</v>
       </c>
       <c r="N7" s="21">
-        <v>2540583.8199999998</v>
+        <v>-22.440000000000001</v>
       </c>
       <c r="O7" s="21">
-        <v>909951.22650000011</v>
+        <v>1024666.5089585794</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8">
-        <v>1000</v>
+        <v>1023</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G8" s="30">
-        <v>43756</v>
+        <v>45252</v>
       </c>
       <c r="H8">
-        <v>0.79669999999999996</v>
+        <v>0.0027000000000000001</v>
       </c>
       <c r="I8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" t="s">
         <v>42</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>43</v>
-      </c>
-      <c r="K8" t="s">
-        <v>44</v>
       </c>
       <c r="L8" s="31">
         <v>0.0080000000000000002</v>
       </c>
       <c r="M8" s="21">
-        <v>1048401.1899999999</v>
+        <v>-10780.56</v>
       </c>
       <c r="N8" s="21">
-        <v>835261.22999999998</v>
+        <v>-29.109999999999999</v>
       </c>
       <c r="O8" s="21">
-        <v>20968.023799999999</v>
+        <v>1028123.9769585794</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9">
+        <v>1004</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
         <v>38</v>
       </c>
-      <c r="B9">
-        <v>1000</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>39</v>
       </c>
-      <c r="E9" t="s">
-        <v>40</v>
-      </c>
       <c r="F9" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G9" s="30">
-        <v>43467</v>
+        <v>45252</v>
       </c>
       <c r="H9">
-        <v>0.0054999999999999997</v>
+        <v>0.0027000000000000001</v>
       </c>
       <c r="I9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" t="s">
         <v>42</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>43</v>
-      </c>
-      <c r="K9" t="s">
-        <v>44</v>
       </c>
       <c r="L9" s="31">
         <v>0.0080000000000000002</v>
       </c>
       <c r="M9" s="21">
-        <v>69893412.549999997</v>
+        <v>21602.860000000001</v>
       </c>
       <c r="N9" s="21">
-        <v>384413.77000000002</v>
+        <v>58.329999999999998</v>
       </c>
       <c r="O9" s="21">
-        <v>1397868.2509999999</v>
+        <v>253257.79823964485</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <v>1004</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
         <v>38</v>
       </c>
-      <c r="B10">
-        <v>1000</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>39</v>
       </c>
-      <c r="E10" t="s">
-        <v>40</v>
-      </c>
       <c r="F10" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G10" s="30">
-        <v>43467</v>
+        <v>45252</v>
       </c>
       <c r="H10">
-        <v>0.0054999999999999997</v>
+        <v>0.0027000000000000001</v>
       </c>
       <c r="I10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" t="s">
         <v>42</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>43</v>
-      </c>
-      <c r="K10" t="s">
-        <v>44</v>
       </c>
       <c r="L10" s="31">
         <v>0.0080000000000000002</v>
       </c>
       <c r="M10" s="21">
-        <v>74261750.829999998</v>
+        <v>78887.270000000004</v>
       </c>
       <c r="N10" s="21">
-        <v>408439.63</v>
+        <v>213</v>
       </c>
       <c r="O10" s="21">
-        <v>1485235.0166</v>
+        <v>1013031.1929585794</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11">
+        <v>1004</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
         <v>38</v>
       </c>
-      <c r="B11">
-        <v>1092</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>56</v>
-      </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G11" s="30">
-        <v>43551</v>
+        <v>45252</v>
       </c>
       <c r="H11">
-        <v>0.23549999999999999</v>
+        <v>0.0027000000000000001</v>
       </c>
       <c r="I11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" t="s">
         <v>42</v>
       </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
       <c r="K11" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="L11" s="31">
-        <v>0.0070000000000000001</v>
+        <v>0.0080000000000000002</v>
       </c>
       <c r="M11" s="21">
-        <v>38064088.159999996</v>
+        <v>83067.220000000001</v>
       </c>
       <c r="N11" s="21">
-        <v>8964092.7599999998</v>
+        <v>224.28</v>
       </c>
       <c r="O11" s="21">
-        <v>761281.76319999993</v>
+        <v>1013031.1929585794</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B12">
         <v>1000</v>
@@ -5369,3365 +5209,826 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G12" s="30">
-        <v>43573</v>
+        <v>46320</v>
       </c>
       <c r="H12">
-        <v>0.29570000000000002</v>
+        <v>2.9268000000000001</v>
       </c>
       <c r="I12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" t="s">
         <v>42</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>43</v>
-      </c>
-      <c r="K12" t="s">
-        <v>44</v>
       </c>
       <c r="L12" s="31">
         <v>0.0080000000000000002</v>
       </c>
       <c r="M12" s="21">
-        <v>30350000</v>
+        <v>40000000</v>
       </c>
       <c r="N12" s="21">
-        <v>8974495</v>
+        <v>117072000</v>
       </c>
       <c r="O12" s="21">
-        <v>1517500</v>
+        <v>1632183.1593058715</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13">
-        <v>1092</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="30">
-        <v>43476</v>
-      </c>
-      <c r="H13">
-        <v>0.030099999999999998</v>
-      </c>
-      <c r="I13" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13" t="s">
-        <v>58</v>
-      </c>
-      <c r="K13" t="s">
-        <v>59</v>
-      </c>
-      <c r="L13" s="31">
-        <v>0.0070000000000000001</v>
-      </c>
-      <c r="M13" s="21">
-        <v>43683382.840000004</v>
-      </c>
-      <c r="N13" s="21">
-        <v>1314869.8200000001</v>
-      </c>
-      <c r="O13" s="21">
-        <v>873667.65680000011</v>
-      </c>
+      <c r="G13" s="30"/>
+      <c r="L13" s="31"/>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14">
-        <v>1092</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="30">
-        <v>43469</v>
-      </c>
-      <c r="H14">
-        <v>0.010999999999999999</v>
-      </c>
-      <c r="I14" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" t="s">
-        <v>58</v>
-      </c>
-      <c r="K14" t="s">
-        <v>59</v>
-      </c>
-      <c r="L14" s="31">
-        <v>0.0070000000000000001</v>
-      </c>
-      <c r="M14" s="21">
-        <v>26210029.699999999</v>
-      </c>
-      <c r="N14" s="21">
-        <v>288310.33000000002</v>
-      </c>
-      <c r="O14" s="21">
-        <v>524200.59399999998</v>
-      </c>
+      <c r="G14" s="30"/>
+      <c r="L14" s="31"/>
     </row>
     <row r="15">
-      <c r="A15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15">
-        <v>1004</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="30">
-        <v>43467</v>
-      </c>
-      <c r="H15">
-        <v>0.0054999999999999997</v>
-      </c>
-      <c r="I15" t="s">
-        <v>42</v>
-      </c>
-      <c r="J15" t="s">
-        <v>43</v>
-      </c>
-      <c r="K15" t="s">
-        <v>44</v>
-      </c>
-      <c r="L15" s="31">
-        <v>0.0080000000000000002</v>
-      </c>
-      <c r="M15" s="21">
-        <v>174733531.36000001</v>
-      </c>
-      <c r="N15" s="21">
-        <v>961034.42000000004</v>
-      </c>
-      <c r="O15" s="21">
-        <v>3494670.6272000005</v>
-      </c>
+      <c r="G15" s="30"/>
+      <c r="L15" s="31"/>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16">
-        <v>1000</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="30">
-        <v>43718</v>
-      </c>
-      <c r="H16">
-        <v>0.69269999999999998</v>
-      </c>
-      <c r="I16" t="s">
-        <v>42</v>
-      </c>
-      <c r="J16" t="s">
-        <v>43</v>
-      </c>
-      <c r="K16" t="s">
-        <v>44</v>
-      </c>
-      <c r="L16" s="31">
-        <v>0.0080000000000000002</v>
-      </c>
-      <c r="M16" s="21">
-        <v>35713010.25</v>
-      </c>
-      <c r="N16" s="21">
-        <v>24738402.199999999</v>
-      </c>
-      <c r="O16" s="21">
-        <v>1785650.5125000002</v>
-      </c>
+      <c r="G16" s="30"/>
+      <c r="L16" s="31"/>
     </row>
     <row r="17">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17">
-        <v>1000</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="30">
-        <v>43508</v>
-      </c>
-      <c r="H17">
-        <v>0.1177</v>
-      </c>
-      <c r="I17" t="s">
-        <v>42</v>
-      </c>
-      <c r="J17" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L17" s="31">
-        <v>0.0080000000000000002</v>
-      </c>
-      <c r="M17" s="21">
-        <v>52420059.409999996</v>
-      </c>
-      <c r="N17" s="21">
-        <v>6169840.9900000002</v>
-      </c>
-      <c r="O17" s="21">
-        <v>1048401.1882</v>
-      </c>
+      <c r="G17" s="30"/>
+      <c r="L17" s="31"/>
     </row>
     <row r="18">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18">
-        <v>1004</v>
-      </c>
-      <c r="C18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" s="30">
-        <v>43468</v>
-      </c>
-      <c r="H18">
-        <v>0.0082000000000000007</v>
-      </c>
-      <c r="I18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J18" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18" t="s">
-        <v>44</v>
-      </c>
-      <c r="L18" s="31">
-        <v>0.0080000000000000002</v>
-      </c>
-      <c r="M18" s="21">
-        <v>43683382.840000004</v>
-      </c>
-      <c r="N18" s="21">
-        <v>358203.73999999999</v>
-      </c>
-      <c r="O18" s="21">
-        <v>873667.65680000011</v>
-      </c>
+      <c r="G18" s="30"/>
+      <c r="L18" s="31"/>
     </row>
     <row r="19">
-      <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19">
-        <v>1000</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" s="30">
-        <v>43665</v>
-      </c>
-      <c r="H19">
-        <v>0.54759999999999998</v>
-      </c>
-      <c r="I19" t="s">
-        <v>42</v>
-      </c>
-      <c r="J19" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" s="31">
-        <v>0.0080000000000000002</v>
-      </c>
-      <c r="M19" s="21">
-        <v>23930314.93</v>
-      </c>
-      <c r="N19" s="21">
-        <v>13104240.460000001</v>
-      </c>
-      <c r="O19" s="21">
-        <v>1196515.7465000001</v>
-      </c>
+      <c r="G19" s="30"/>
+      <c r="L19" s="31"/>
     </row>
     <row r="20">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20">
-        <v>1000</v>
-      </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20" s="30">
-        <v>43539</v>
-      </c>
-      <c r="H20">
-        <v>0.2026</v>
-      </c>
-      <c r="I20" t="s">
-        <v>42</v>
-      </c>
-      <c r="J20" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20" t="s">
-        <v>44</v>
-      </c>
-      <c r="L20" s="31">
-        <v>0.0080000000000000002</v>
-      </c>
-      <c r="M20" s="21">
-        <v>34946706.270000003</v>
-      </c>
-      <c r="N20" s="21">
-        <v>7080202.6900000004</v>
-      </c>
-      <c r="O20" s="21">
-        <v>698934.12540000014</v>
-      </c>
+      <c r="G20" s="30"/>
+      <c r="L20" s="31"/>
     </row>
     <row r="21">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21">
-        <v>1000</v>
-      </c>
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="G21" s="30">
-        <v>43469</v>
-      </c>
-      <c r="H21">
-        <v>0.010999999999999999</v>
-      </c>
-      <c r="I21" t="s">
-        <v>42</v>
-      </c>
-      <c r="J21" t="s">
-        <v>43</v>
-      </c>
-      <c r="K21" t="s">
-        <v>44</v>
-      </c>
-      <c r="L21" s="31">
-        <v>0.0080000000000000002</v>
-      </c>
-      <c r="M21" s="21">
-        <v>43683382.840000004</v>
-      </c>
-      <c r="N21" s="21">
-        <v>480517.21000000002</v>
-      </c>
-      <c r="O21" s="21">
-        <v>873667.65680000011</v>
-      </c>
+      <c r="G21" s="30"/>
+      <c r="L21" s="31"/>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22">
-        <v>1000</v>
-      </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22" s="30">
-        <v>43473</v>
-      </c>
-      <c r="H22">
-        <v>0.021899999999999999</v>
-      </c>
-      <c r="I22" t="s">
-        <v>42</v>
-      </c>
-      <c r="J22" t="s">
-        <v>43</v>
-      </c>
-      <c r="K22" t="s">
-        <v>44</v>
-      </c>
-      <c r="L22" s="31">
-        <v>0.0080000000000000002</v>
-      </c>
-      <c r="M22" s="21">
-        <v>43683382.840000004</v>
-      </c>
-      <c r="N22" s="21">
-        <v>956666.07999999996</v>
-      </c>
-      <c r="O22" s="21">
-        <v>873667.65680000011</v>
-      </c>
+      <c r="G22" s="30"/>
+      <c r="L22" s="31"/>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23">
-        <v>1000</v>
-      </c>
-      <c r="C23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="G23" s="30">
-        <v>43602</v>
-      </c>
-      <c r="H23">
-        <v>0.37509999999999999</v>
-      </c>
-      <c r="I23" t="s">
-        <v>42</v>
-      </c>
-      <c r="J23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K23" t="s">
-        <v>44</v>
-      </c>
-      <c r="L23" s="31">
-        <v>0.0080000000000000002</v>
-      </c>
-      <c r="M23" s="21">
-        <v>24058413.829999998</v>
-      </c>
-      <c r="N23" s="21">
-        <v>9024311.0299999993</v>
-      </c>
-      <c r="O23" s="21">
-        <v>1202920.6915</v>
-      </c>
+      <c r="G23" s="30"/>
+      <c r="L23" s="31"/>
     </row>
     <row r="24">
-      <c r="A24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24">
-        <v>1000</v>
-      </c>
-      <c r="C24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="G24" s="30">
-        <v>43544</v>
-      </c>
-      <c r="H24">
-        <v>0.21629999999999999</v>
-      </c>
-      <c r="I24" t="s">
-        <v>42</v>
-      </c>
-      <c r="J24" t="s">
-        <v>43</v>
-      </c>
-      <c r="K24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L24" s="31">
-        <v>0.0080000000000000002</v>
-      </c>
-      <c r="M24" s="21">
-        <v>30450000</v>
-      </c>
-      <c r="N24" s="21">
-        <v>6586335</v>
-      </c>
-      <c r="O24" s="21">
-        <v>1522500</v>
-      </c>
+      <c r="G24" s="30"/>
+      <c r="L24" s="31"/>
     </row>
     <row r="25">
-      <c r="A25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25">
-        <v>1004</v>
-      </c>
-      <c r="C25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="G25" s="30">
-        <v>43476</v>
-      </c>
-      <c r="H25">
-        <v>0.030099999999999998</v>
-      </c>
-      <c r="I25" t="s">
-        <v>42</v>
-      </c>
-      <c r="J25" t="s">
-        <v>43</v>
-      </c>
-      <c r="K25" t="s">
-        <v>44</v>
-      </c>
-      <c r="L25" s="31">
-        <v>0.0080000000000000002</v>
-      </c>
-      <c r="M25" s="21">
-        <v>26210029.699999999</v>
-      </c>
-      <c r="N25" s="21">
-        <v>788921.89000000001</v>
-      </c>
-      <c r="O25" s="21">
-        <v>524200.59399999998</v>
-      </c>
+      <c r="G25" s="30"/>
+      <c r="L25" s="31"/>
     </row>
     <row r="26">
-      <c r="A26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26">
-        <v>1000</v>
-      </c>
-      <c r="C26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="G26" s="30">
-        <v>43469</v>
-      </c>
-      <c r="H26">
-        <v>0.010999999999999999</v>
-      </c>
-      <c r="I26" t="s">
-        <v>42</v>
-      </c>
-      <c r="J26" t="s">
-        <v>43</v>
-      </c>
-      <c r="K26" t="s">
-        <v>44</v>
-      </c>
-      <c r="L26" s="31">
-        <v>0.0080000000000000002</v>
-      </c>
-      <c r="M26" s="21">
-        <v>87366765.680000007</v>
-      </c>
-      <c r="N26" s="21">
-        <v>961034.42000000004</v>
-      </c>
-      <c r="O26" s="21">
-        <v>1747335.3136000002</v>
-      </c>
+      <c r="G26" s="30"/>
+      <c r="L26" s="31"/>
     </row>
     <row r="27">
-      <c r="A27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27">
-        <v>1000</v>
-      </c>
-      <c r="C27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="G27" s="30">
-        <v>43469</v>
-      </c>
-      <c r="H27">
-        <v>0.010999999999999999</v>
-      </c>
-      <c r="I27" t="s">
-        <v>42</v>
-      </c>
-      <c r="J27" t="s">
-        <v>43</v>
-      </c>
-      <c r="K27" t="s">
-        <v>44</v>
-      </c>
-      <c r="L27" s="31">
-        <v>0.0080000000000000002</v>
-      </c>
-      <c r="M27" s="21">
-        <v>43683382.840000004</v>
-      </c>
-      <c r="N27" s="21">
-        <v>480517.21000000002</v>
-      </c>
-      <c r="O27" s="21">
-        <v>873667.65680000011</v>
-      </c>
+      <c r="G27" s="30"/>
+      <c r="L27" s="31"/>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28">
-        <v>1000</v>
-      </c>
-      <c r="C28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" t="s">
-        <v>40</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="G28" s="30">
-        <v>43469</v>
-      </c>
-      <c r="H28">
-        <v>0.010999999999999999</v>
-      </c>
-      <c r="I28" t="s">
-        <v>42</v>
-      </c>
-      <c r="J28" t="s">
-        <v>43</v>
-      </c>
-      <c r="K28" t="s">
-        <v>44</v>
-      </c>
-      <c r="L28" s="31">
-        <v>0.0080000000000000002</v>
-      </c>
-      <c r="M28" s="21">
-        <v>87366765.680000007</v>
-      </c>
-      <c r="N28" s="21">
-        <v>961034.42000000004</v>
-      </c>
-      <c r="O28" s="21">
-        <v>1747335.3136000002</v>
-      </c>
+      <c r="G28" s="30"/>
+      <c r="L28" s="31"/>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29">
-        <v>1000</v>
-      </c>
-      <c r="C29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" t="s">
-        <v>40</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="G29" s="30">
-        <v>43474</v>
-      </c>
-      <c r="H29">
-        <v>0.0246</v>
-      </c>
-      <c r="I29" t="s">
-        <v>42</v>
-      </c>
-      <c r="J29" t="s">
-        <v>43</v>
-      </c>
-      <c r="K29" t="s">
-        <v>44</v>
-      </c>
-      <c r="L29" s="31">
-        <v>0.0080000000000000002</v>
-      </c>
-      <c r="M29" s="21">
-        <v>87366765.680000007</v>
-      </c>
-      <c r="N29" s="21">
-        <v>2149222.4399999999</v>
-      </c>
-      <c r="O29" s="21">
-        <v>1747335.3136000002</v>
-      </c>
+      <c r="G29" s="30"/>
+      <c r="L29" s="31"/>
     </row>
     <row r="30">
-      <c r="A30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30">
-        <v>1000</v>
-      </c>
-      <c r="C30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" t="s">
-        <v>51</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="G30" s="30">
-        <v>43636</v>
-      </c>
-      <c r="H30">
-        <v>0.46820000000000001</v>
-      </c>
-      <c r="I30" t="s">
-        <v>42</v>
-      </c>
-      <c r="J30" t="s">
-        <v>43</v>
-      </c>
-      <c r="K30" t="s">
-        <v>44</v>
-      </c>
-      <c r="L30" s="31">
-        <v>0.0080000000000000002</v>
-      </c>
-      <c r="M30" s="21">
-        <v>30046271.260000002</v>
-      </c>
-      <c r="N30" s="21">
-        <v>14067664.199999999</v>
-      </c>
-      <c r="O30" s="21">
-        <v>1502313.5630000001</v>
-      </c>
+      <c r="G30" s="30"/>
+      <c r="L30" s="31"/>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31">
-        <v>1004</v>
-      </c>
-      <c r="C31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="G31" s="30">
-        <v>43467</v>
-      </c>
-      <c r="H31">
-        <v>0.0054999999999999997</v>
-      </c>
-      <c r="I31" t="s">
-        <v>42</v>
-      </c>
-      <c r="J31" t="s">
-        <v>43</v>
-      </c>
-      <c r="K31" t="s">
-        <v>44</v>
-      </c>
-      <c r="L31" s="31">
-        <v>0.0080000000000000002</v>
-      </c>
-      <c r="M31" s="21">
-        <v>131050148.52</v>
-      </c>
-      <c r="N31" s="21">
-        <v>720775.81999999995</v>
-      </c>
-      <c r="O31" s="21">
-        <v>2621002.9704</v>
-      </c>
+      <c r="G31" s="30"/>
+      <c r="L31" s="31"/>
     </row>
     <row r="32">
-      <c r="A32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32">
-        <v>1000</v>
-      </c>
-      <c r="C32" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="G32" s="30">
-        <v>43718</v>
-      </c>
-      <c r="H32">
-        <v>0.69269999999999998</v>
-      </c>
-      <c r="I32" t="s">
-        <v>42</v>
-      </c>
-      <c r="J32" t="s">
-        <v>43</v>
-      </c>
-      <c r="K32" t="s">
-        <v>44</v>
-      </c>
-      <c r="L32" s="31">
-        <v>0.0080000000000000002</v>
-      </c>
-      <c r="M32" s="21">
-        <v>29860000</v>
-      </c>
-      <c r="N32" s="21">
-        <v>20684022</v>
-      </c>
-      <c r="O32" s="21">
-        <v>2388800</v>
-      </c>
+      <c r="G32" s="30"/>
+      <c r="L32" s="31"/>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>1004</v>
-      </c>
-      <c r="C33" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="G33" s="30">
-        <v>43544</v>
-      </c>
-      <c r="H33">
-        <v>0.21629999999999999</v>
-      </c>
-      <c r="I33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J33" t="s">
-        <v>43</v>
-      </c>
-      <c r="K33" t="s">
-        <v>44</v>
-      </c>
-      <c r="L33" s="31">
-        <v>0.0080000000000000002</v>
-      </c>
-      <c r="M33" s="21">
-        <v>62000000</v>
-      </c>
-      <c r="N33" s="21">
-        <v>13410600</v>
-      </c>
-      <c r="O33" s="21">
-        <v>1240000</v>
-      </c>
+      <c r="G33" s="30"/>
+      <c r="L33" s="31"/>
     </row>
     <row r="34">
-      <c r="A34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34">
-        <v>1000</v>
-      </c>
-      <c r="C34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" t="s">
-        <v>40</v>
-      </c>
-      <c r="F34" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="G34" s="30">
-        <v>43467</v>
-      </c>
-      <c r="H34">
-        <v>0.0054999999999999997</v>
-      </c>
-      <c r="I34" t="s">
-        <v>42</v>
-      </c>
-      <c r="J34" t="s">
-        <v>43</v>
-      </c>
-      <c r="K34" t="s">
-        <v>44</v>
-      </c>
-      <c r="L34" s="31">
-        <v>0.0080000000000000002</v>
-      </c>
-      <c r="M34" s="21">
-        <v>200943561.06999999</v>
-      </c>
-      <c r="N34" s="21">
-        <v>1105189.5900000001</v>
-      </c>
-      <c r="O34" s="21">
-        <v>4018871.2214000002</v>
-      </c>
+      <c r="G34" s="30"/>
+      <c r="L34" s="31"/>
     </row>
     <row r="35">
-      <c r="A35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35">
-        <v>1000</v>
-      </c>
-      <c r="C35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" t="s">
-        <v>51</v>
-      </c>
-      <c r="F35" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="G35" s="30">
-        <v>43602</v>
-      </c>
-      <c r="H35">
-        <v>0.37509999999999999</v>
-      </c>
-      <c r="I35" t="s">
-        <v>42</v>
-      </c>
-      <c r="J35" t="s">
-        <v>43</v>
-      </c>
-      <c r="K35" t="s">
-        <v>44</v>
-      </c>
-      <c r="L35" s="31">
-        <v>0.0080000000000000002</v>
-      </c>
-      <c r="M35" s="21">
-        <v>18150000</v>
-      </c>
-      <c r="N35" s="21">
-        <v>6808065</v>
-      </c>
-      <c r="O35" s="21">
-        <v>907500</v>
-      </c>
+      <c r="G35" s="30"/>
+      <c r="L35" s="31"/>
     </row>
     <row r="36">
-      <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36">
-        <v>1000</v>
-      </c>
-      <c r="C36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" t="s">
-        <v>40</v>
-      </c>
-      <c r="F36" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="G36" s="30">
-        <v>43468</v>
-      </c>
-      <c r="H36">
-        <v>0.0082000000000000007</v>
-      </c>
-      <c r="I36" t="s">
-        <v>42</v>
-      </c>
-      <c r="J36" t="s">
-        <v>43</v>
-      </c>
-      <c r="K36" t="s">
-        <v>44</v>
-      </c>
-      <c r="L36" s="31">
-        <v>0.0080000000000000002</v>
-      </c>
-      <c r="M36" s="21">
-        <v>43683382.840000004</v>
-      </c>
-      <c r="N36" s="21">
-        <v>358203.73999999999</v>
-      </c>
-      <c r="O36" s="21">
-        <v>873667.65680000011</v>
-      </c>
+      <c r="G36" s="30"/>
+      <c r="L36" s="31"/>
     </row>
     <row r="37">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37">
-        <v>1000</v>
-      </c>
-      <c r="C37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37" t="s">
-        <v>51</v>
-      </c>
-      <c r="F37" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="G37" s="30">
-        <v>43544</v>
-      </c>
-      <c r="H37">
-        <v>0.21629999999999999</v>
-      </c>
-      <c r="I37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J37" t="s">
-        <v>43</v>
-      </c>
-      <c r="K37" t="s">
-        <v>44</v>
-      </c>
-      <c r="L37" s="31">
-        <v>0.0080000000000000002</v>
-      </c>
-      <c r="M37" s="21">
-        <v>18151675.399999999</v>
-      </c>
-      <c r="N37" s="21">
-        <v>3926207.3900000001</v>
-      </c>
-      <c r="O37" s="21">
-        <v>907583.77000000002</v>
-      </c>
+      <c r="G37" s="30"/>
+      <c r="L37" s="31"/>
     </row>
     <row r="38">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38">
-        <v>1000</v>
-      </c>
-      <c r="C38" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" t="s">
-        <v>40</v>
-      </c>
-      <c r="F38" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="G38" s="30">
-        <v>43469</v>
-      </c>
-      <c r="H38">
-        <v>0.010999999999999999</v>
-      </c>
-      <c r="I38" t="s">
-        <v>42</v>
-      </c>
-      <c r="J38" t="s">
-        <v>43</v>
-      </c>
-      <c r="K38" t="s">
-        <v>44</v>
-      </c>
-      <c r="L38" s="31">
-        <v>0.0080000000000000002</v>
-      </c>
-      <c r="M38" s="21">
-        <v>87366765.680000007</v>
-      </c>
-      <c r="N38" s="21">
-        <v>961034.42000000004</v>
-      </c>
-      <c r="O38" s="21">
-        <v>1747335.3136000002</v>
-      </c>
+      <c r="G38" s="30"/>
+      <c r="L38" s="31"/>
     </row>
     <row r="39">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>1004</v>
-      </c>
-      <c r="C39" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" t="s">
-        <v>47</v>
-      </c>
-      <c r="F39" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="G39" s="30">
-        <v>43467</v>
-      </c>
-      <c r="H39">
-        <v>0.0054999999999999997</v>
-      </c>
-      <c r="I39" t="s">
-        <v>42</v>
-      </c>
-      <c r="J39" t="s">
-        <v>43</v>
-      </c>
-      <c r="K39" t="s">
-        <v>44</v>
-      </c>
-      <c r="L39" s="31">
-        <v>0.0080000000000000002</v>
-      </c>
-      <c r="M39" s="21">
-        <v>174733531.36000001</v>
-      </c>
-      <c r="N39" s="21">
-        <v>961034.42000000004</v>
-      </c>
-      <c r="O39" s="21">
-        <v>3494670.6272000005</v>
-      </c>
+      <c r="G39" s="30"/>
+      <c r="L39" s="31"/>
     </row>
     <row r="40">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>1000</v>
-      </c>
-      <c r="C40" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" t="s">
-        <v>39</v>
-      </c>
-      <c r="E40" t="s">
-        <v>40</v>
-      </c>
-      <c r="F40" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="G40" s="30">
-        <v>43476</v>
-      </c>
-      <c r="H40">
-        <v>0.030099999999999998</v>
-      </c>
-      <c r="I40" t="s">
-        <v>42</v>
-      </c>
-      <c r="J40" t="s">
-        <v>43</v>
-      </c>
-      <c r="K40" t="s">
-        <v>44</v>
-      </c>
-      <c r="L40" s="31">
-        <v>0.0080000000000000002</v>
-      </c>
-      <c r="M40" s="21">
-        <v>17473353.140000001</v>
-      </c>
-      <c r="N40" s="21">
-        <v>525947.93000000005</v>
-      </c>
-      <c r="O40" s="21">
-        <v>349467.06280000001</v>
-      </c>
+      <c r="G40" s="30"/>
+      <c r="L40" s="31"/>
     </row>
     <row r="41">
-      <c r="A41" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41">
-        <v>1004</v>
-      </c>
-      <c r="C41" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" t="s">
-        <v>46</v>
-      </c>
-      <c r="E41" t="s">
-        <v>47</v>
-      </c>
-      <c r="F41" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="G41" s="30">
-        <v>43467</v>
-      </c>
-      <c r="H41">
-        <v>0.0054999999999999997</v>
-      </c>
-      <c r="I41" t="s">
-        <v>42</v>
-      </c>
-      <c r="J41" t="s">
-        <v>43</v>
-      </c>
-      <c r="K41" t="s">
-        <v>44</v>
-      </c>
-      <c r="L41" s="31">
-        <v>0.0080000000000000002</v>
-      </c>
-      <c r="M41" s="21">
-        <v>131050148.52</v>
-      </c>
-      <c r="N41" s="21">
-        <v>720775.81999999995</v>
-      </c>
-      <c r="O41" s="21">
-        <v>2621002.9704</v>
-      </c>
+      <c r="G41" s="30"/>
+      <c r="L41" s="31"/>
     </row>
     <row r="42">
-      <c r="A42" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42">
-        <v>1000</v>
-      </c>
-      <c r="C42" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" t="s">
-        <v>50</v>
-      </c>
-      <c r="E42" t="s">
-        <v>51</v>
-      </c>
-      <c r="F42" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="G42" s="30">
-        <v>43809</v>
-      </c>
-      <c r="H42">
-        <v>0.94179999999999997</v>
-      </c>
-      <c r="I42" t="s">
-        <v>42</v>
-      </c>
-      <c r="J42" t="s">
-        <v>43</v>
-      </c>
-      <c r="K42" t="s">
-        <v>44</v>
-      </c>
-      <c r="L42" s="31">
-        <v>0.0080000000000000002</v>
-      </c>
-      <c r="M42" s="21">
-        <v>35455963.689999998</v>
-      </c>
-      <c r="N42" s="21">
-        <v>33392426.600000001</v>
-      </c>
-      <c r="O42" s="21">
-        <v>2836477.0951999999</v>
-      </c>
+      <c r="G42" s="30"/>
+      <c r="L42" s="31"/>
     </row>
     <row r="43">
-      <c r="A43" t="s">
-        <v>91</v>
-      </c>
-      <c r="B43">
-        <v>1000</v>
-      </c>
-      <c r="C43" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" t="s">
-        <v>50</v>
-      </c>
-      <c r="E43" t="s">
-        <v>51</v>
-      </c>
-      <c r="F43" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="G43" s="30">
-        <v>44700</v>
-      </c>
-      <c r="H43">
-        <v>3.3813</v>
-      </c>
-      <c r="I43" t="s">
-        <v>42</v>
-      </c>
-      <c r="J43" t="s">
-        <v>43</v>
-      </c>
-      <c r="K43" t="s">
-        <v>44</v>
-      </c>
-      <c r="L43" s="31">
-        <v>0.0080000000000000002</v>
-      </c>
-      <c r="M43" s="21">
-        <v>4000000</v>
-      </c>
-      <c r="N43" s="21">
-        <v>13525200</v>
-      </c>
-      <c r="O43" s="21">
-        <v>120000</v>
-      </c>
+      <c r="G43" s="30"/>
+      <c r="L43" s="31"/>
     </row>
     <row r="44">
-      <c r="A44" t="s">
-        <v>91</v>
-      </c>
-      <c r="B44">
-        <v>1000</v>
-      </c>
-      <c r="C44" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" t="s">
-        <v>50</v>
-      </c>
-      <c r="E44" t="s">
-        <v>51</v>
-      </c>
-      <c r="F44" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="G44" s="30">
-        <v>45214</v>
-      </c>
-      <c r="H44">
-        <v>4.7885999999999997</v>
-      </c>
-      <c r="I44" t="s">
-        <v>42</v>
-      </c>
-      <c r="J44" t="s">
-        <v>43</v>
-      </c>
-      <c r="K44" t="s">
-        <v>44</v>
-      </c>
-      <c r="L44" s="31">
-        <v>0.0080000000000000002</v>
-      </c>
-      <c r="M44" s="21">
-        <v>40000000</v>
-      </c>
-      <c r="N44" s="21">
-        <v>191544000</v>
-      </c>
-      <c r="O44" s="21">
-        <v>1600000</v>
-      </c>
+      <c r="G44" s="30"/>
+      <c r="L44" s="31"/>
     </row>
     <row r="45">
-      <c r="A45" t="s">
-        <v>91</v>
-      </c>
-      <c r="B45">
-        <v>1000</v>
-      </c>
-      <c r="C45" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" t="s">
-        <v>50</v>
-      </c>
-      <c r="E45" t="s">
-        <v>51</v>
-      </c>
-      <c r="F45" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G45" s="30">
-        <v>44819</v>
-      </c>
-      <c r="H45">
-        <v>3.7072000000000003</v>
-      </c>
-      <c r="I45" t="s">
-        <v>42</v>
-      </c>
-      <c r="J45" t="s">
-        <v>43</v>
-      </c>
-      <c r="K45" t="s">
-        <v>44</v>
-      </c>
-      <c r="L45" s="31">
-        <v>0.0080000000000000002</v>
-      </c>
-      <c r="M45" s="21">
-        <v>38000000</v>
-      </c>
-      <c r="N45" s="21">
-        <v>140873600</v>
-      </c>
-      <c r="O45" s="21">
-        <v>1140000</v>
-      </c>
+      <c r="G45" s="30"/>
+      <c r="L45" s="31"/>
     </row>
     <row r="46">
-      <c r="A46" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46">
-        <v>1093</v>
-      </c>
-      <c r="C46" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" t="s">
-        <v>95</v>
-      </c>
-      <c r="E46" t="s">
-        <v>96</v>
-      </c>
-      <c r="F46" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="G46" s="30">
-        <v>43718</v>
-      </c>
-      <c r="H46">
-        <v>0.69269999999999998</v>
-      </c>
-      <c r="I46" t="s">
-        <v>42</v>
-      </c>
-      <c r="J46" t="s">
-        <v>43</v>
-      </c>
-      <c r="K46" t="s">
-        <v>44</v>
-      </c>
-      <c r="L46" s="31">
-        <v>0.0080000000000000002</v>
-      </c>
-      <c r="M46" s="21">
-        <v>38130099.899999999</v>
-      </c>
-      <c r="N46" s="21">
-        <v>26412720.199999999</v>
-      </c>
-      <c r="O46" s="21">
-        <v>1906504.9950000001</v>
-      </c>
+      <c r="G46" s="30"/>
+      <c r="L46" s="31"/>
     </row>
     <row r="47">
-      <c r="A47" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47">
-        <v>1093</v>
-      </c>
-      <c r="C47" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" t="s">
-        <v>95</v>
-      </c>
-      <c r="E47" t="s">
-        <v>96</v>
-      </c>
-      <c r="F47" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="G47" s="30">
-        <v>43665</v>
-      </c>
-      <c r="H47">
-        <v>0.54759999999999998</v>
-      </c>
-      <c r="I47" t="s">
-        <v>42</v>
-      </c>
-      <c r="J47" t="s">
-        <v>43</v>
-      </c>
-      <c r="K47" t="s">
-        <v>44</v>
-      </c>
-      <c r="L47" s="31">
-        <v>0.0080000000000000002</v>
-      </c>
-      <c r="M47" s="21">
-        <v>25420066.600000001</v>
-      </c>
-      <c r="N47" s="21">
-        <v>13920028.470000001</v>
-      </c>
-      <c r="O47" s="21">
-        <v>1271003.3300000001</v>
-      </c>
+      <c r="G47" s="30"/>
+      <c r="L47" s="31"/>
     </row>
     <row r="48">
-      <c r="A48" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48">
-        <v>1093</v>
-      </c>
-      <c r="C48" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" t="s">
-        <v>95</v>
-      </c>
-      <c r="E48" t="s">
-        <v>96</v>
-      </c>
-      <c r="F48" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G48" s="30">
-        <v>43544</v>
-      </c>
-      <c r="H48">
-        <v>0.21629999999999999</v>
-      </c>
-      <c r="I48" t="s">
-        <v>42</v>
-      </c>
-      <c r="J48" t="s">
-        <v>43</v>
-      </c>
-      <c r="K48" t="s">
-        <v>44</v>
-      </c>
-      <c r="L48" s="31">
-        <v>0.0080000000000000002</v>
-      </c>
-      <c r="M48" s="21">
-        <v>19065049.949999999</v>
-      </c>
-      <c r="N48" s="21">
-        <v>4123770.2999999998</v>
-      </c>
-      <c r="O48" s="21">
-        <v>953252.49750000006</v>
-      </c>
+      <c r="G48" s="30"/>
+      <c r="L48" s="31"/>
     </row>
     <row r="49">
-      <c r="A49" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49">
-        <v>1093</v>
-      </c>
-      <c r="C49" t="s">
-        <v>21</v>
-      </c>
-      <c r="D49" t="s">
-        <v>95</v>
-      </c>
-      <c r="E49" t="s">
-        <v>96</v>
-      </c>
-      <c r="F49" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="G49" s="30">
-        <v>43544</v>
-      </c>
-      <c r="H49">
-        <v>0.21629999999999999</v>
-      </c>
-      <c r="I49" t="s">
-        <v>42</v>
-      </c>
-      <c r="J49" t="s">
-        <v>43</v>
-      </c>
-      <c r="K49" t="s">
-        <v>44</v>
-      </c>
-      <c r="L49" s="31">
-        <v>0.0080000000000000002</v>
-      </c>
-      <c r="M49" s="21">
-        <v>31775083.25</v>
-      </c>
-      <c r="N49" s="21">
-        <v>6872950.5099999998</v>
-      </c>
-      <c r="O49" s="21">
-        <v>1588754.1625000001</v>
-      </c>
+      <c r="G49" s="30"/>
+      <c r="L49" s="31"/>
     </row>
     <row r="50">
-      <c r="A50" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50">
-        <v>1093</v>
-      </c>
-      <c r="C50" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50" t="s">
-        <v>95</v>
-      </c>
-      <c r="E50" t="s">
-        <v>96</v>
-      </c>
-      <c r="F50" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="G50" s="30">
-        <v>43636</v>
-      </c>
-      <c r="H50">
-        <v>0.46820000000000001</v>
-      </c>
-      <c r="I50" t="s">
-        <v>42</v>
-      </c>
-      <c r="J50" t="s">
-        <v>43</v>
-      </c>
-      <c r="K50" t="s">
-        <v>44</v>
-      </c>
-      <c r="L50" s="31">
-        <v>0.0080000000000000002</v>
-      </c>
-      <c r="M50" s="21">
-        <v>31775083.25</v>
-      </c>
-      <c r="N50" s="21">
-        <v>14877093.98</v>
-      </c>
-      <c r="O50" s="21">
-        <v>1588754.1625000001</v>
-      </c>
+      <c r="G50" s="30"/>
+      <c r="L50" s="31"/>
     </row>
     <row r="51">
-      <c r="A51" t="s">
-        <v>38</v>
-      </c>
-      <c r="B51">
-        <v>1093</v>
-      </c>
-      <c r="C51" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51" t="s">
-        <v>95</v>
-      </c>
-      <c r="E51" t="s">
-        <v>96</v>
-      </c>
-      <c r="F51" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="G51" s="30">
-        <v>43718</v>
-      </c>
-      <c r="H51">
-        <v>0.69269999999999998</v>
-      </c>
-      <c r="I51" t="s">
-        <v>42</v>
-      </c>
-      <c r="J51" t="s">
-        <v>43</v>
-      </c>
-      <c r="K51" t="s">
-        <v>44</v>
-      </c>
-      <c r="L51" s="31">
-        <v>0.0080000000000000002</v>
-      </c>
-      <c r="M51" s="21">
-        <v>31775083.25</v>
-      </c>
-      <c r="N51" s="21">
-        <v>22010600.170000002</v>
-      </c>
-      <c r="O51" s="21">
-        <v>2542006.6600000001</v>
-      </c>
+      <c r="G51" s="30"/>
+      <c r="L51" s="31"/>
     </row>
     <row r="52">
-      <c r="A52" t="s">
-        <v>38</v>
-      </c>
-      <c r="B52">
-        <v>1093</v>
-      </c>
-      <c r="C52" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" t="s">
-        <v>95</v>
-      </c>
-      <c r="E52" t="s">
-        <v>96</v>
-      </c>
-      <c r="F52" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="G52" s="30">
-        <v>43602</v>
-      </c>
-      <c r="H52">
-        <v>0.37509999999999999</v>
-      </c>
-      <c r="I52" t="s">
-        <v>42</v>
-      </c>
-      <c r="J52" t="s">
-        <v>43</v>
-      </c>
-      <c r="K52" t="s">
-        <v>44</v>
-      </c>
-      <c r="L52" s="31">
-        <v>0.0080000000000000002</v>
-      </c>
-      <c r="M52" s="21">
-        <v>25420066.600000001</v>
-      </c>
-      <c r="N52" s="21">
-        <v>9535066.9800000004</v>
-      </c>
-      <c r="O52" s="21">
-        <v>1271003.3300000001</v>
-      </c>
+      <c r="G52" s="30"/>
+      <c r="L52" s="31"/>
     </row>
     <row r="53">
-      <c r="A53" t="s">
-        <v>38</v>
-      </c>
-      <c r="B53">
-        <v>1093</v>
-      </c>
-      <c r="C53" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" t="s">
-        <v>95</v>
-      </c>
-      <c r="E53" t="s">
-        <v>96</v>
-      </c>
-      <c r="F53" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="G53" s="30">
-        <v>43602</v>
-      </c>
-      <c r="H53">
-        <v>0.37509999999999999</v>
-      </c>
-      <c r="I53" t="s">
-        <v>42</v>
-      </c>
-      <c r="J53" t="s">
-        <v>43</v>
-      </c>
-      <c r="K53" t="s">
-        <v>44</v>
-      </c>
-      <c r="L53" s="31">
-        <v>0.0080000000000000002</v>
-      </c>
-      <c r="M53" s="21">
-        <v>19065049.949999999</v>
-      </c>
-      <c r="N53" s="21">
-        <v>7151300.2400000002</v>
-      </c>
-      <c r="O53" s="21">
-        <v>953252.49750000006</v>
-      </c>
+      <c r="G53" s="30"/>
+      <c r="L53" s="31"/>
     </row>
     <row r="54">
-      <c r="A54" t="s">
-        <v>38</v>
-      </c>
-      <c r="B54">
-        <v>1093</v>
-      </c>
-      <c r="C54" t="s">
-        <v>21</v>
-      </c>
-      <c r="D54" t="s">
-        <v>95</v>
-      </c>
-      <c r="E54" t="s">
-        <v>96</v>
-      </c>
-      <c r="F54" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="G54" s="30">
-        <v>43573</v>
-      </c>
-      <c r="H54">
-        <v>0.29570000000000002</v>
-      </c>
-      <c r="I54" t="s">
-        <v>42</v>
-      </c>
-      <c r="J54" t="s">
-        <v>43</v>
-      </c>
-      <c r="K54" t="s">
-        <v>44</v>
-      </c>
-      <c r="L54" s="31">
-        <v>0.0080000000000000002</v>
-      </c>
-      <c r="M54" s="21">
-        <v>31775083.25</v>
-      </c>
-      <c r="N54" s="21">
-        <v>9395892.1199999992</v>
-      </c>
-      <c r="O54" s="21">
-        <v>1588754.1625000001</v>
-      </c>
+      <c r="G54" s="30"/>
+      <c r="L54" s="31"/>
     </row>
     <row r="55">
-      <c r="A55" t="s">
-        <v>38</v>
-      </c>
-      <c r="B55">
-        <v>1093</v>
-      </c>
-      <c r="C55" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" t="s">
-        <v>95</v>
-      </c>
-      <c r="E55" t="s">
-        <v>96</v>
-      </c>
-      <c r="F55" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="G55" s="30">
-        <v>43809</v>
-      </c>
-      <c r="H55">
-        <v>0.94179999999999997</v>
-      </c>
-      <c r="I55" t="s">
-        <v>42</v>
-      </c>
-      <c r="J55" t="s">
-        <v>43</v>
-      </c>
-      <c r="K55" t="s">
-        <v>44</v>
-      </c>
-      <c r="L55" s="31">
-        <v>0.0080000000000000002</v>
-      </c>
-      <c r="M55" s="21">
-        <v>38130099.899999999</v>
-      </c>
-      <c r="N55" s="21">
-        <v>35910928.090000004</v>
-      </c>
-      <c r="O55" s="21">
-        <v>3050407.9920000001</v>
-      </c>
+      <c r="G55" s="30"/>
+      <c r="L55" s="31"/>
     </row>
     <row r="56">
-      <c r="A56" t="s">
-        <v>38</v>
-      </c>
-      <c r="B56">
-        <v>1093</v>
-      </c>
-      <c r="C56" t="s">
-        <v>21</v>
-      </c>
-      <c r="D56" t="s">
-        <v>95</v>
-      </c>
-      <c r="E56" t="s">
-        <v>96</v>
-      </c>
-      <c r="F56" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="G56" s="30">
-        <v>43516</v>
-      </c>
-      <c r="H56">
-        <v>0.1396</v>
-      </c>
-      <c r="I56" t="s">
-        <v>42</v>
-      </c>
-      <c r="J56" t="s">
-        <v>43</v>
-      </c>
-      <c r="K56" t="s">
-        <v>44</v>
-      </c>
-      <c r="L56" s="31">
-        <v>0.0080000000000000002</v>
-      </c>
-      <c r="M56" s="21">
-        <v>19065049.949999999</v>
-      </c>
-      <c r="N56" s="21">
-        <v>2661480.9700000002</v>
-      </c>
-      <c r="O56" s="21">
-        <v>953252.49750000006</v>
-      </c>
+      <c r="G56" s="30"/>
+      <c r="L56" s="31"/>
     </row>
     <row r="57">
-      <c r="F57" s="23"/>
       <c r="G57" s="30"/>
       <c r="L57" s="31"/>
-      <c r="M57" s="21"/>
-      <c r="N57" s="21"/>
-      <c r="O57" s="21"/>
     </row>
     <row r="58">
-      <c r="F58" s="23"/>
       <c r="G58" s="30"/>
       <c r="L58" s="31"/>
-      <c r="M58" s="21"/>
-      <c r="N58" s="21"/>
-      <c r="O58" s="21"/>
     </row>
     <row r="59">
-      <c r="F59" s="23"/>
       <c r="G59" s="30"/>
       <c r="L59" s="31"/>
-      <c r="M59" s="21"/>
-      <c r="N59" s="21"/>
-      <c r="O59" s="21"/>
     </row>
     <row r="60">
-      <c r="F60" s="23"/>
       <c r="G60" s="30"/>
       <c r="L60" s="31"/>
-      <c r="M60" s="21"/>
-      <c r="N60" s="21"/>
-      <c r="O60" s="21"/>
     </row>
     <row r="61">
-      <c r="F61" s="23"/>
       <c r="G61" s="30"/>
       <c r="L61" s="31"/>
-      <c r="M61" s="21"/>
-      <c r="N61" s="21"/>
-      <c r="O61" s="21"/>
     </row>
     <row r="62">
-      <c r="F62" s="23"/>
       <c r="G62" s="30"/>
       <c r="L62" s="31"/>
-      <c r="M62" s="21"/>
-      <c r="N62" s="21"/>
-      <c r="O62" s="21"/>
     </row>
     <row r="63">
-      <c r="F63" s="23"/>
       <c r="G63" s="30"/>
       <c r="L63" s="31"/>
-      <c r="M63" s="21"/>
-      <c r="N63" s="21"/>
-      <c r="O63" s="21"/>
     </row>
     <row r="64">
-      <c r="F64" s="23"/>
       <c r="G64" s="30"/>
       <c r="L64" s="31"/>
-      <c r="M64" s="21"/>
-      <c r="N64" s="21"/>
-      <c r="O64" s="21"/>
     </row>
     <row r="65">
-      <c r="F65" s="23"/>
       <c r="G65" s="30"/>
       <c r="L65" s="31"/>
-      <c r="M65" s="21"/>
-      <c r="N65" s="21"/>
-      <c r="O65" s="21"/>
     </row>
     <row r="66">
-      <c r="F66" s="23"/>
       <c r="G66" s="30"/>
       <c r="L66" s="31"/>
-      <c r="M66" s="21"/>
-      <c r="N66" s="21"/>
-      <c r="O66" s="21"/>
     </row>
     <row r="67">
-      <c r="F67" s="23"/>
       <c r="G67" s="30"/>
       <c r="L67" s="31"/>
-      <c r="M67" s="21"/>
-      <c r="N67" s="21"/>
-      <c r="O67" s="21"/>
     </row>
     <row r="68">
-      <c r="F68" s="23"/>
       <c r="G68" s="30"/>
       <c r="L68" s="31"/>
-      <c r="M68" s="21"/>
-      <c r="N68" s="21"/>
-      <c r="O68" s="21"/>
     </row>
     <row r="69">
-      <c r="F69" s="23"/>
       <c r="G69" s="30"/>
       <c r="L69" s="31"/>
-      <c r="M69" s="21"/>
-      <c r="N69" s="21"/>
-      <c r="O69" s="21"/>
     </row>
     <row r="70">
-      <c r="F70" s="23"/>
       <c r="G70" s="30"/>
       <c r="L70" s="31"/>
-      <c r="M70" s="21"/>
-      <c r="N70" s="21"/>
-      <c r="O70" s="21"/>
     </row>
     <row r="71">
-      <c r="F71" s="23"/>
       <c r="G71" s="30"/>
       <c r="L71" s="31"/>
-      <c r="M71" s="21"/>
-      <c r="N71" s="21"/>
-      <c r="O71" s="21"/>
     </row>
     <row r="72">
-      <c r="F72" s="23"/>
       <c r="G72" s="30"/>
       <c r="L72" s="31"/>
-      <c r="M72" s="21"/>
-      <c r="N72" s="21"/>
-      <c r="O72" s="21"/>
     </row>
     <row r="73">
-      <c r="F73" s="23"/>
       <c r="G73" s="30"/>
       <c r="L73" s="31"/>
-      <c r="M73" s="21"/>
-      <c r="N73" s="21"/>
-      <c r="O73" s="21"/>
     </row>
     <row r="74">
-      <c r="F74" s="23"/>
       <c r="G74" s="30"/>
       <c r="L74" s="31"/>
-      <c r="M74" s="21"/>
-      <c r="N74" s="21"/>
-      <c r="O74" s="21"/>
     </row>
     <row r="75">
-      <c r="F75" s="23"/>
       <c r="G75" s="30"/>
       <c r="L75" s="31"/>
-      <c r="M75" s="21"/>
-      <c r="N75" s="21"/>
-      <c r="O75" s="21"/>
     </row>
     <row r="76">
-      <c r="F76" s="23"/>
       <c r="G76" s="30"/>
       <c r="L76" s="31"/>
-      <c r="M76" s="21"/>
-      <c r="N76" s="21"/>
-      <c r="O76" s="21"/>
     </row>
     <row r="77">
-      <c r="F77" s="23"/>
       <c r="G77" s="30"/>
       <c r="L77" s="31"/>
-      <c r="M77" s="21"/>
-      <c r="N77" s="21"/>
-      <c r="O77" s="21"/>
     </row>
     <row r="78">
-      <c r="F78" s="23"/>
       <c r="G78" s="30"/>
       <c r="L78" s="31"/>
-      <c r="M78" s="21"/>
-      <c r="N78" s="21"/>
-      <c r="O78" s="21"/>
     </row>
     <row r="79">
-      <c r="F79" s="23"/>
       <c r="G79" s="30"/>
       <c r="L79" s="31"/>
-      <c r="M79" s="21"/>
-      <c r="N79" s="21"/>
-      <c r="O79" s="21"/>
     </row>
     <row r="80">
-      <c r="F80" s="23"/>
       <c r="G80" s="30"/>
       <c r="L80" s="31"/>
-      <c r="M80" s="21"/>
-      <c r="N80" s="21"/>
-      <c r="O80" s="21"/>
     </row>
     <row r="81">
-      <c r="F81" s="23"/>
       <c r="G81" s="30"/>
       <c r="L81" s="31"/>
-      <c r="M81" s="21"/>
-      <c r="N81" s="21"/>
-      <c r="O81" s="21"/>
     </row>
     <row r="82">
-      <c r="F82" s="23"/>
       <c r="G82" s="30"/>
       <c r="L82" s="31"/>
-      <c r="M82" s="21"/>
-      <c r="N82" s="21"/>
-      <c r="O82" s="21"/>
     </row>
     <row r="83">
-      <c r="F83" s="23"/>
       <c r="G83" s="30"/>
       <c r="L83" s="31"/>
-      <c r="M83" s="21"/>
-      <c r="N83" s="21"/>
-      <c r="O83" s="21"/>
     </row>
     <row r="84">
-      <c r="F84" s="23"/>
       <c r="G84" s="30"/>
       <c r="L84" s="31"/>
-      <c r="M84" s="21"/>
-      <c r="N84" s="21"/>
-      <c r="O84" s="21"/>
     </row>
     <row r="85">
-      <c r="F85" s="23"/>
       <c r="G85" s="30"/>
       <c r="L85" s="31"/>
-      <c r="M85" s="21"/>
-      <c r="N85" s="21"/>
-      <c r="O85" s="21"/>
     </row>
     <row r="86">
-      <c r="F86" s="23"/>
       <c r="G86" s="30"/>
       <c r="L86" s="31"/>
-      <c r="M86" s="21"/>
-      <c r="N86" s="21"/>
-      <c r="O86" s="21"/>
     </row>
     <row r="87">
-      <c r="F87" s="23"/>
       <c r="G87" s="30"/>
       <c r="L87" s="31"/>
-      <c r="M87" s="21"/>
-      <c r="N87" s="21"/>
-      <c r="O87" s="21"/>
     </row>
     <row r="88">
-      <c r="F88" s="23"/>
       <c r="G88" s="30"/>
       <c r="L88" s="31"/>
-      <c r="M88" s="21"/>
-      <c r="N88" s="21"/>
-      <c r="O88" s="21"/>
     </row>
     <row r="89">
-      <c r="F89" s="23"/>
       <c r="G89" s="30"/>
       <c r="L89" s="31"/>
-      <c r="M89" s="21"/>
-      <c r="N89" s="21"/>
-      <c r="O89" s="21"/>
     </row>
     <row r="90">
-      <c r="F90" s="23"/>
       <c r="G90" s="30"/>
       <c r="L90" s="31"/>
-      <c r="M90" s="21"/>
-      <c r="N90" s="21"/>
-      <c r="O90" s="21"/>
     </row>
     <row r="91">
-      <c r="F91" s="23"/>
       <c r="G91" s="30"/>
       <c r="L91" s="31"/>
-      <c r="M91" s="21"/>
-      <c r="N91" s="21"/>
-      <c r="O91" s="21"/>
     </row>
     <row r="92">
-      <c r="F92" s="23"/>
       <c r="G92" s="30"/>
       <c r="L92" s="31"/>
-      <c r="M92" s="21"/>
-      <c r="N92" s="21"/>
-      <c r="O92" s="21"/>
     </row>
     <row r="93">
-      <c r="F93" s="23"/>
       <c r="G93" s="30"/>
       <c r="L93" s="31"/>
-      <c r="M93" s="21"/>
-      <c r="N93" s="21"/>
-      <c r="O93" s="21"/>
     </row>
     <row r="94">
-      <c r="F94" s="23"/>
       <c r="G94" s="30"/>
       <c r="L94" s="31"/>
-      <c r="M94" s="21"/>
-      <c r="N94" s="21"/>
-      <c r="O94" s="21"/>
     </row>
     <row r="95">
-      <c r="F95" s="23"/>
       <c r="G95" s="30"/>
       <c r="L95" s="31"/>
-      <c r="M95" s="21"/>
-      <c r="N95" s="21"/>
-      <c r="O95" s="21"/>
     </row>
     <row r="96">
-      <c r="F96" s="23"/>
       <c r="G96" s="30"/>
       <c r="L96" s="31"/>
-      <c r="M96" s="21"/>
-      <c r="N96" s="21"/>
-      <c r="O96" s="21"/>
     </row>
     <row r="97">
-      <c r="F97" s="23"/>
       <c r="G97" s="30"/>
       <c r="L97" s="31"/>
-      <c r="M97" s="21"/>
-      <c r="N97" s="21"/>
-      <c r="O97" s="21"/>
     </row>
     <row r="98">
-      <c r="F98" s="23"/>
       <c r="G98" s="30"/>
       <c r="L98" s="31"/>
-      <c r="M98" s="21"/>
-      <c r="N98" s="21"/>
-      <c r="O98" s="21"/>
     </row>
     <row r="99">
-      <c r="F99" s="23"/>
       <c r="G99" s="30"/>
       <c r="L99" s="31"/>
-      <c r="M99" s="21"/>
-      <c r="N99" s="21"/>
-      <c r="O99" s="21"/>
     </row>
     <row r="100">
-      <c r="F100" s="23"/>
       <c r="G100" s="30"/>
       <c r="L100" s="31"/>
-      <c r="M100" s="21"/>
-      <c r="N100" s="21"/>
-      <c r="O100" s="21"/>
     </row>
     <row r="101">
-      <c r="F101" s="23"/>
       <c r="G101" s="30"/>
       <c r="L101" s="31"/>
-      <c r="M101" s="21"/>
-      <c r="N101" s="21"/>
-      <c r="O101" s="21"/>
     </row>
     <row r="102">
-      <c r="F102" s="23"/>
       <c r="G102" s="30"/>
       <c r="L102" s="31"/>
-      <c r="M102" s="21"/>
-      <c r="N102" s="21"/>
-      <c r="O102" s="21"/>
     </row>
     <row r="103">
-      <c r="F103" s="23"/>
       <c r="G103" s="30"/>
       <c r="L103" s="31"/>
-      <c r="M103" s="21"/>
-      <c r="N103" s="21"/>
-      <c r="O103" s="21"/>
     </row>
     <row r="104">
-      <c r="F104" s="23"/>
       <c r="G104" s="30"/>
       <c r="L104" s="31"/>
-      <c r="M104" s="21"/>
-      <c r="N104" s="21"/>
-      <c r="O104" s="21"/>
     </row>
     <row r="105">
-      <c r="F105" s="23"/>
       <c r="G105" s="30"/>
       <c r="L105" s="31"/>
-      <c r="M105" s="21"/>
-      <c r="N105" s="21"/>
-      <c r="O105" s="21"/>
     </row>
     <row r="106">
-      <c r="F106" s="23"/>
       <c r="G106" s="30"/>
       <c r="L106" s="31"/>
-      <c r="M106" s="21"/>
-      <c r="N106" s="21"/>
-      <c r="O106" s="21"/>
     </row>
     <row r="107">
-      <c r="F107" s="23"/>
       <c r="G107" s="30"/>
       <c r="L107" s="31"/>
-      <c r="M107" s="21"/>
-      <c r="N107" s="21"/>
-      <c r="O107" s="21"/>
     </row>
     <row r="108">
-      <c r="F108" s="23"/>
       <c r="G108" s="30"/>
       <c r="L108" s="31"/>
-      <c r="M108" s="21"/>
-      <c r="N108" s="21"/>
-      <c r="O108" s="21"/>
     </row>
     <row r="109">
-      <c r="F109" s="23"/>
       <c r="G109" s="30"/>
       <c r="L109" s="31"/>
-      <c r="M109" s="21"/>
-      <c r="N109" s="21"/>
-      <c r="O109" s="21"/>
     </row>
     <row r="110">
-      <c r="F110" s="23"/>
       <c r="G110" s="30"/>
       <c r="L110" s="31"/>
-      <c r="M110" s="21"/>
-      <c r="N110" s="21"/>
-      <c r="O110" s="21"/>
     </row>
     <row r="111">
-      <c r="F111" s="23"/>
       <c r="G111" s="30"/>
       <c r="L111" s="31"/>
-      <c r="M111" s="21"/>
-      <c r="N111" s="21"/>
-      <c r="O111" s="21"/>
     </row>
     <row r="112">
-      <c r="F112" s="23"/>
       <c r="G112" s="30"/>
       <c r="L112" s="31"/>
-      <c r="M112" s="21"/>
-      <c r="N112" s="21"/>
-      <c r="O112" s="21"/>
     </row>
     <row r="113">
-      <c r="F113" s="23"/>
       <c r="G113" s="30"/>
       <c r="L113" s="31"/>
-      <c r="M113" s="21"/>
-      <c r="N113" s="21"/>
-      <c r="O113" s="21"/>
     </row>
     <row r="114">
-      <c r="F114" s="23"/>
       <c r="G114" s="30"/>
       <c r="L114" s="31"/>
-      <c r="M114" s="21"/>
-      <c r="N114" s="21"/>
-      <c r="O114" s="21"/>
     </row>
     <row r="115">
-      <c r="F115" s="23"/>
       <c r="G115" s="30"/>
       <c r="L115" s="31"/>
-      <c r="M115" s="21"/>
-      <c r="N115" s="21"/>
-      <c r="O115" s="21"/>
     </row>
     <row r="116">
-      <c r="F116" s="23"/>
       <c r="G116" s="30"/>
       <c r="L116" s="31"/>
-      <c r="M116" s="21"/>
-      <c r="N116" s="21"/>
-      <c r="O116" s="21"/>
     </row>
     <row r="117">
-      <c r="F117" s="23"/>
       <c r="G117" s="30"/>
       <c r="L117" s="31"/>
-      <c r="M117" s="21"/>
-      <c r="N117" s="21"/>
-      <c r="O117" s="21"/>
     </row>
     <row r="118">
-      <c r="F118" s="23"/>
       <c r="G118" s="30"/>
       <c r="L118" s="31"/>
-      <c r="M118" s="21"/>
-      <c r="N118" s="21"/>
-      <c r="O118" s="21"/>
     </row>
     <row r="119">
-      <c r="F119" s="23"/>
       <c r="G119" s="30"/>
       <c r="L119" s="31"/>
-      <c r="M119" s="21"/>
-      <c r="N119" s="21"/>
-      <c r="O119" s="21"/>
     </row>
     <row r="120">
-      <c r="F120" s="23"/>
       <c r="G120" s="30"/>
       <c r="L120" s="31"/>
-      <c r="M120" s="21"/>
-      <c r="N120" s="21"/>
-      <c r="O120" s="21"/>
     </row>
     <row r="121">
-      <c r="F121" s="23"/>
       <c r="G121" s="30"/>
       <c r="L121" s="31"/>
-      <c r="M121" s="21"/>
-      <c r="N121" s="21"/>
-      <c r="O121" s="21"/>
     </row>
     <row r="122">
-      <c r="F122" s="23"/>
       <c r="G122" s="30"/>
       <c r="L122" s="31"/>
-      <c r="M122" s="21"/>
-      <c r="N122" s="21"/>
-      <c r="O122" s="21"/>
     </row>
     <row r="123">
-      <c r="F123" s="23"/>
       <c r="G123" s="30"/>
       <c r="L123" s="31"/>
-      <c r="M123" s="21"/>
-      <c r="N123" s="21"/>
-      <c r="O123" s="21"/>
     </row>
     <row r="124">
-      <c r="F124" s="23"/>
       <c r="G124" s="30"/>
       <c r="L124" s="31"/>
-      <c r="M124" s="21"/>
-      <c r="N124" s="21"/>
-      <c r="O124" s="21"/>
     </row>
     <row r="125">
-      <c r="F125" s="23"/>
       <c r="G125" s="30"/>
       <c r="L125" s="31"/>
-      <c r="M125" s="21"/>
-      <c r="N125" s="21"/>
-      <c r="O125" s="21"/>
     </row>
     <row r="126">
-      <c r="F126" s="23"/>
       <c r="G126" s="30"/>
       <c r="L126" s="31"/>
-      <c r="M126" s="21"/>
-      <c r="N126" s="21"/>
-      <c r="O126" s="21"/>
     </row>
     <row r="127">
-      <c r="F127" s="23"/>
       <c r="G127" s="30"/>
       <c r="L127" s="31"/>
-      <c r="M127" s="21"/>
-      <c r="N127" s="21"/>
-      <c r="O127" s="21"/>
     </row>
     <row r="128">
-      <c r="F128" s="23"/>
       <c r="G128" s="30"/>
       <c r="L128" s="31"/>
-      <c r="M128" s="21"/>
-      <c r="N128" s="21"/>
-      <c r="O128" s="21"/>
     </row>
     <row r="129">
-      <c r="F129" s="23"/>
       <c r="G129" s="30"/>
       <c r="L129" s="31"/>
-      <c r="M129" s="21"/>
-      <c r="N129" s="21"/>
-      <c r="O129" s="21"/>
     </row>
     <row r="130">
-      <c r="F130" s="23"/>
       <c r="G130" s="30"/>
       <c r="L130" s="31"/>
-      <c r="M130" s="21"/>
-      <c r="N130" s="21"/>
-      <c r="O130" s="21"/>
     </row>
     <row r="131">
-      <c r="F131" s="23"/>
       <c r="G131" s="30"/>
       <c r="L131" s="31"/>
-      <c r="M131" s="21"/>
-      <c r="N131" s="21"/>
-      <c r="O131" s="21"/>
     </row>
     <row r="132">
-      <c r="F132" s="23"/>
       <c r="G132" s="30"/>
       <c r="L132" s="31"/>
-      <c r="M132" s="21"/>
-      <c r="N132" s="21"/>
-      <c r="O132" s="21"/>
     </row>
     <row r="133">
-      <c r="F133" s="23"/>
       <c r="G133" s="30"/>
       <c r="L133" s="31"/>
-      <c r="M133" s="21"/>
-      <c r="N133" s="21"/>
-      <c r="O133" s="21"/>
     </row>
     <row r="134">
-      <c r="F134" s="23"/>
       <c r="G134" s="30"/>
       <c r="L134" s="31"/>
-      <c r="M134" s="21"/>
-      <c r="N134" s="21"/>
-      <c r="O134" s="21"/>
     </row>
     <row r="135">
-      <c r="F135" s="23"/>
       <c r="G135" s="30"/>
       <c r="L135" s="31"/>
-      <c r="M135" s="21"/>
-      <c r="N135" s="21"/>
-      <c r="O135" s="21"/>
     </row>
     <row r="136">
-      <c r="F136" s="23"/>
       <c r="G136" s="30"/>
       <c r="L136" s="31"/>
-      <c r="M136" s="21"/>
-      <c r="N136" s="21"/>
-      <c r="O136" s="21"/>
     </row>
     <row r="137">
-      <c r="F137" s="23"/>
       <c r="G137" s="30"/>
       <c r="L137" s="31"/>
-      <c r="M137" s="21"/>
-      <c r="N137" s="21"/>
-      <c r="O137" s="21"/>
     </row>
     <row r="138">
-      <c r="F138" s="23"/>
       <c r="G138" s="30"/>
       <c r="L138" s="31"/>
-      <c r="M138" s="21"/>
-      <c r="N138" s="21"/>
-      <c r="O138" s="21"/>
     </row>
     <row r="139">
-      <c r="F139" s="23"/>
       <c r="G139" s="30"/>
       <c r="L139" s="31"/>
-      <c r="M139" s="21"/>
-      <c r="N139" s="21"/>
-      <c r="O139" s="21"/>
     </row>
     <row r="140">
-      <c r="F140" s="23"/>
       <c r="G140" s="30"/>
       <c r="L140" s="31"/>
-      <c r="M140" s="21"/>
-      <c r="N140" s="21"/>
-      <c r="O140" s="21"/>
     </row>
     <row r="141">
-      <c r="F141" s="23"/>
       <c r="G141" s="30"/>
       <c r="L141" s="31"/>
-      <c r="M141" s="21"/>
-      <c r="N141" s="21"/>
-      <c r="O141" s="21"/>
     </row>
     <row r="142">
-      <c r="F142" s="23"/>
       <c r="G142" s="30"/>
       <c r="L142" s="31"/>
-      <c r="M142" s="21"/>
-      <c r="N142" s="21"/>
-      <c r="O142" s="21"/>
     </row>
     <row r="143">
-      <c r="F143" s="23"/>
       <c r="G143" s="30"/>
       <c r="L143" s="31"/>
-      <c r="M143" s="21"/>
-      <c r="N143" s="21"/>
-      <c r="O143" s="21"/>
     </row>
     <row r="144">
-      <c r="F144" s="23"/>
       <c r="G144" s="30"/>
       <c r="L144" s="31"/>
-      <c r="M144" s="21"/>
-      <c r="N144" s="21"/>
-      <c r="O144" s="21"/>
     </row>
     <row r="145">
-      <c r="F145" s="23"/>
       <c r="G145" s="30"/>
       <c r="L145" s="31"/>
-      <c r="M145" s="21"/>
-      <c r="N145" s="21"/>
-      <c r="O145" s="21"/>
     </row>
     <row r="146">
-      <c r="F146" s="23"/>
       <c r="G146" s="30"/>
       <c r="L146" s="31"/>
-      <c r="M146" s="21"/>
-      <c r="N146" s="21"/>
-      <c r="O146" s="21"/>
     </row>
     <row r="147">
-      <c r="F147" s="23"/>
       <c r="G147" s="30"/>
       <c r="L147" s="31"/>
-      <c r="M147" s="21"/>
-      <c r="N147" s="21"/>
-      <c r="O147" s="21"/>
     </row>
     <row r="148">
-      <c r="F148" s="23"/>
       <c r="G148" s="30"/>
       <c r="L148" s="31"/>
-      <c r="M148" s="21"/>
-      <c r="N148" s="21"/>
-      <c r="O148" s="21"/>
     </row>
     <row r="149">
-      <c r="F149" s="23"/>
       <c r="G149" s="30"/>
       <c r="L149" s="31"/>
-      <c r="M149" s="21"/>
-      <c r="N149" s="21"/>
-      <c r="O149" s="21"/>
     </row>
     <row r="150">
-      <c r="F150" s="23"/>
       <c r="G150" s="30"/>
       <c r="L150" s="31"/>
-      <c r="M150" s="21"/>
-      <c r="N150" s="21"/>
-      <c r="O150" s="21"/>
     </row>
     <row r="151">
-      <c r="F151" s="23"/>
       <c r="G151" s="30"/>
       <c r="L151" s="31"/>
-      <c r="M151" s="21"/>
-      <c r="N151" s="21"/>
-      <c r="O151" s="21"/>
     </row>
     <row r="152">
-      <c r="F152" s="23"/>
       <c r="G152" s="30"/>
       <c r="L152" s="31"/>
-      <c r="M152" s="21"/>
-      <c r="N152" s="21"/>
-      <c r="O152" s="21"/>
     </row>
     <row r="153">
-      <c r="F153" s="23"/>
       <c r="G153" s="30"/>
       <c r="L153" s="31"/>
-      <c r="M153" s="21"/>
-      <c r="N153" s="21"/>
-      <c r="O153" s="21"/>
     </row>
     <row r="154">
-      <c r="F154" s="23"/>
       <c r="G154" s="30"/>
       <c r="L154" s="31"/>
-      <c r="M154" s="21"/>
-      <c r="N154" s="21"/>
-      <c r="O154" s="21"/>
     </row>
     <row r="155">
-      <c r="F155" s="23"/>
       <c r="G155" s="30"/>
       <c r="L155" s="31"/>
-      <c r="M155" s="21"/>
-      <c r="N155" s="21"/>
-      <c r="O155" s="21"/>
     </row>
     <row r="156">
-      <c r="F156" s="23"/>
       <c r="G156" s="30"/>
       <c r="L156" s="31"/>
-      <c r="M156" s="21"/>
-      <c r="N156" s="21"/>
-      <c r="O156" s="21"/>
     </row>
     <row r="157">
-      <c r="F157" s="23"/>
       <c r="G157" s="30"/>
       <c r="L157" s="31"/>
-      <c r="M157" s="21"/>
-      <c r="N157" s="21"/>
-      <c r="O157" s="21"/>
     </row>
     <row r="158">
-      <c r="F158" s="23"/>
       <c r="G158" s="30"/>
       <c r="L158" s="31"/>
-      <c r="M158" s="21"/>
-      <c r="N158" s="21"/>
-      <c r="O158" s="21"/>
     </row>
     <row r="159">
-      <c r="F159" s="23"/>
       <c r="G159" s="30"/>
       <c r="L159" s="31"/>
-      <c r="M159" s="21"/>
-      <c r="N159" s="21"/>
-      <c r="O159" s="21"/>
     </row>
     <row r="160">
-      <c r="F160" s="23"/>
       <c r="G160" s="30"/>
       <c r="L160" s="31"/>
-      <c r="M160" s="21"/>
-      <c r="N160" s="21"/>
-      <c r="O160" s="21"/>
     </row>
     <row r="161">
-      <c r="F161" s="23"/>
       <c r="G161" s="30"/>
       <c r="L161" s="31"/>
-      <c r="M161" s="21"/>
-      <c r="N161" s="21"/>
-      <c r="O161" s="21"/>
     </row>
     <row r="162">
-      <c r="F162" s="23"/>
       <c r="G162" s="30"/>
       <c r="L162" s="31"/>
-      <c r="M162" s="21"/>
-      <c r="N162" s="21"/>
-      <c r="O162" s="21"/>
     </row>
     <row r="163">
-      <c r="F163" s="23"/>
       <c r="G163" s="30"/>
       <c r="L163" s="31"/>
-      <c r="M163" s="21"/>
-      <c r="N163" s="21"/>
-      <c r="O163" s="21"/>
     </row>
     <row r="164">
-      <c r="F164" s="23"/>
       <c r="G164" s="30"/>
       <c r="L164" s="31"/>
-      <c r="M164" s="21"/>
-      <c r="N164" s="21"/>
-      <c r="O164" s="21"/>
     </row>
     <row r="165">
-      <c r="F165" s="23"/>
       <c r="G165" s="30"/>
       <c r="L165" s="31"/>
-      <c r="M165" s="21"/>
-      <c r="N165" s="21"/>
-      <c r="O165" s="21"/>
     </row>
     <row r="166">
-      <c r="F166" s="23"/>
       <c r="G166" s="30"/>
       <c r="L166" s="31"/>
-      <c r="M166" s="21"/>
-      <c r="N166" s="21"/>
-      <c r="O166" s="21"/>
     </row>
     <row r="167">
-      <c r="F167" s="23"/>
       <c r="G167" s="30"/>
       <c r="L167" s="31"/>
-      <c r="M167" s="21"/>
-      <c r="N167" s="21"/>
-      <c r="O167" s="21"/>
     </row>
     <row r="168">
-      <c r="F168" s="23"/>
       <c r="G168" s="30"/>
       <c r="L168" s="31"/>
-      <c r="M168" s="21"/>
-      <c r="N168" s="21"/>
-      <c r="O168" s="21"/>
     </row>
     <row r="169">
-      <c r="F169" s="23"/>
       <c r="G169" s="30"/>
       <c r="L169" s="31"/>
-      <c r="M169" s="21"/>
-      <c r="N169" s="21"/>
-      <c r="O169" s="21"/>
     </row>
     <row r="170">
-      <c r="F170" s="23"/>
       <c r="G170" s="30"/>
       <c r="L170" s="31"/>
-      <c r="M170" s="21"/>
-      <c r="N170" s="21"/>
-      <c r="O170" s="21"/>
     </row>
     <row r="171">
-      <c r="F171" s="23"/>
       <c r="G171" s="30"/>
       <c r="L171" s="31"/>
-      <c r="M171" s="21"/>
-      <c r="N171" s="21"/>
-      <c r="O171" s="21"/>
     </row>
     <row r="172">
-      <c r="F172" s="23"/>
       <c r="G172" s="30"/>
       <c r="L172" s="31"/>
-      <c r="M172" s="21"/>
-      <c r="N172" s="21"/>
-      <c r="O172" s="21"/>
     </row>
     <row r="173">
-      <c r="F173" s="23"/>
       <c r="G173" s="30"/>
       <c r="L173" s="31"/>
-      <c r="M173" s="21"/>
-      <c r="N173" s="21"/>
-      <c r="O173" s="21"/>
     </row>
     <row r="174">
-      <c r="F174" s="23"/>
       <c r="G174" s="30"/>
       <c r="L174" s="31"/>
-      <c r="M174" s="21"/>
-      <c r="N174" s="21"/>
-      <c r="O174" s="21"/>
     </row>
     <row r="175">
-      <c r="F175" s="23"/>
       <c r="G175" s="30"/>
       <c r="L175" s="31"/>
-      <c r="M175" s="21"/>
-      <c r="N175" s="21"/>
-      <c r="O175" s="21"/>
     </row>
     <row r="176">
-      <c r="F176" s="23"/>
       <c r="G176" s="30"/>
       <c r="L176" s="31"/>
-      <c r="M176" s="21"/>
-      <c r="N176" s="21"/>
-      <c r="O176" s="21"/>
     </row>
     <row r="177">
-      <c r="F177" s="23"/>
       <c r="G177" s="30"/>
       <c r="L177" s="31"/>
-      <c r="M177" s="21"/>
-      <c r="N177" s="21"/>
-      <c r="O177" s="21"/>
     </row>
     <row r="178">
-      <c r="F178" s="23"/>
       <c r="G178" s="30"/>
       <c r="L178" s="31"/>
-      <c r="M178" s="21"/>
-      <c r="N178" s="21"/>
-      <c r="O178" s="21"/>
     </row>
     <row r="179">
-      <c r="F179" s="23"/>
       <c r="G179" s="30"/>
       <c r="L179" s="31"/>
-      <c r="M179" s="21"/>
-      <c r="N179" s="21"/>
-      <c r="O179" s="21"/>
     </row>
     <row r="180">
-      <c r="F180" s="23"/>
       <c r="G180" s="30"/>
       <c r="L180" s="31"/>
-      <c r="M180" s="21"/>
-      <c r="N180" s="21"/>
-      <c r="O180" s="21"/>
     </row>
     <row r="181">
-      <c r="F181" s="23"/>
       <c r="G181" s="30"/>
       <c r="L181" s="31"/>
-      <c r="M181" s="21"/>
-      <c r="N181" s="21"/>
-      <c r="O181" s="21"/>
     </row>
     <row r="182">
-      <c r="F182" s="23"/>
       <c r="G182" s="30"/>
       <c r="L182" s="31"/>
-      <c r="M182" s="21"/>
-      <c r="N182" s="21"/>
-      <c r="O182" s="21"/>
     </row>
     <row r="183">
-      <c r="F183" s="23"/>
       <c r="G183" s="30"/>
       <c r="L183" s="31"/>
-      <c r="M183" s="21"/>
-      <c r="N183" s="21"/>
-      <c r="O183" s="21"/>
     </row>
     <row r="184">
-      <c r="F184" s="23"/>
       <c r="G184" s="30"/>
       <c r="L184" s="31"/>
-      <c r="M184" s="21"/>
-      <c r="N184" s="21"/>
-      <c r="O184" s="21"/>
     </row>
     <row r="185">
-      <c r="F185" s="23"/>
       <c r="G185" s="30"/>
       <c r="L185" s="31"/>
-      <c r="M185" s="21"/>
-      <c r="N185" s="21"/>
-      <c r="O185" s="21"/>
     </row>
     <row r="186">
-      <c r="F186" s="23"/>
       <c r="G186" s="30"/>
       <c r="L186" s="31"/>
-      <c r="M186" s="21"/>
-      <c r="N186" s="21"/>
-      <c r="O186" s="21"/>
     </row>
     <row r="187">
-      <c r="F187" s="23"/>
       <c r="G187" s="30"/>
       <c r="L187" s="31"/>
-      <c r="M187" s="21"/>
-      <c r="N187" s="21"/>
-      <c r="O187" s="21"/>
     </row>
     <row r="188">
-      <c r="F188" s="23"/>
       <c r="G188" s="30"/>
       <c r="L188" s="31"/>
-      <c r="M188" s="21"/>
-      <c r="N188" s="21"/>
-      <c r="O188" s="21"/>
     </row>
     <row r="189">
-      <c r="F189" s="23"/>
       <c r="G189" s="30"/>
       <c r="L189" s="31"/>
-      <c r="M189" s="21"/>
-      <c r="N189" s="21"/>
-      <c r="O189" s="21"/>
     </row>
     <row r="190">
-      <c r="F190" s="23"/>
       <c r="G190" s="30"/>
       <c r="L190" s="31"/>
-      <c r="M190" s="21"/>
-      <c r="N190" s="21"/>
-      <c r="O190" s="21"/>
     </row>
     <row r="191">
-      <c r="F191" s="23"/>
       <c r="G191" s="30"/>
       <c r="L191" s="31"/>
-      <c r="M191" s="21"/>
-      <c r="N191" s="21"/>
-      <c r="O191" s="21"/>
     </row>
     <row r="192">
-      <c r="F192" s="23"/>
       <c r="G192" s="30"/>
       <c r="L192" s="31"/>
-      <c r="M192" s="21"/>
-      <c r="N192" s="21"/>
-      <c r="O192" s="21"/>
     </row>
     <row r="193">
-      <c r="F193" s="23"/>
       <c r="G193" s="30"/>
       <c r="L193" s="31"/>
-      <c r="M193" s="21"/>
-      <c r="N193" s="21"/>
-      <c r="O193" s="21"/>
     </row>
     <row r="194">
-      <c r="F194" s="23"/>
       <c r="G194" s="30"/>
       <c r="L194" s="31"/>
-      <c r="M194" s="21"/>
-      <c r="N194" s="21"/>
-      <c r="O194" s="21"/>
     </row>
     <row r="195">
-      <c r="F195" s="23"/>
       <c r="G195" s="30"/>
-      <c r="L195" s="24"/>
-      <c r="M195" s="21"/>
-      <c r="N195" s="21"/>
-      <c r="O195" s="21"/>
     </row>
     <row r="196">
-      <c r="F196" s="23"/>
       <c r="G196" s="30"/>
-      <c r="L196" s="24"/>
-      <c r="M196" s="21"/>
-      <c r="N196" s="21"/>
-      <c r="O196" s="21"/>
     </row>
     <row r="197">
-      <c r="F197" s="23"/>
       <c r="G197" s="30"/>
-      <c r="L197" s="24"/>
-      <c r="M197" s="21"/>
-      <c r="N197" s="21"/>
-      <c r="O197" s="21"/>
     </row>
     <row r="198">
-      <c r="F198" s="23"/>
       <c r="G198" s="30"/>
-      <c r="L198" s="24"/>
-      <c r="M198" s="21"/>
-      <c r="N198" s="21"/>
-      <c r="O198" s="21"/>
     </row>
     <row r="199">
-      <c r="F199" s="23"/>
       <c r="G199" s="30"/>
-      <c r="L199" s="24"/>
-      <c r="M199" s="21"/>
-      <c r="N199" s="21"/>
-      <c r="O199" s="21"/>
     </row>
     <row r="200">
-      <c r="F200" s="23"/>
       <c r="G200" s="30"/>
-      <c r="L200" s="24"/>
-      <c r="M200" s="21"/>
-      <c r="N200" s="21"/>
-      <c r="O200" s="21"/>
     </row>
     <row r="201">
-      <c r="F201" s="23"/>
       <c r="G201" s="30"/>
-      <c r="L201" s="24"/>
-      <c r="M201" s="21"/>
-      <c r="N201" s="21"/>
-      <c r="O201" s="21"/>
     </row>
     <row r="202">
-      <c r="F202" s="23"/>
       <c r="G202" s="30"/>
-      <c r="L202" s="24"/>
-      <c r="M202" s="21"/>
-      <c r="N202" s="21"/>
-      <c r="O202" s="21"/>
     </row>
     <row r="203">
-      <c r="F203" s="23"/>
       <c r="G203" s="30"/>
-      <c r="L203" s="24"/>
-      <c r="M203" s="21"/>
-      <c r="N203" s="21"/>
-      <c r="O203" s="21"/>
     </row>
     <row r="204">
-      <c r="F204" s="23"/>
       <c r="G204" s="30"/>
-      <c r="L204" s="24"/>
-      <c r="M204" s="21"/>
-      <c r="N204" s="21"/>
-      <c r="O204" s="21"/>
     </row>
     <row r="205">
-      <c r="F205" s="23"/>
       <c r="G205" s="30"/>
-      <c r="L205" s="24"/>
-      <c r="M205" s="21"/>
-      <c r="N205" s="21"/>
-      <c r="O205" s="21"/>
     </row>
     <row r="206">
-      <c r="F206" s="23"/>
       <c r="G206" s="30"/>
-      <c r="L206" s="24"/>
-      <c r="M206" s="21"/>
-      <c r="N206" s="21"/>
-      <c r="O206" s="21"/>
     </row>
     <row r="207">
-      <c r="F207" s="23"/>
       <c r="G207" s="30"/>
-      <c r="L207" s="24"/>
-      <c r="M207" s="21"/>
-      <c r="N207" s="21"/>
-      <c r="O207" s="21"/>
     </row>
     <row r="208">
-      <c r="F208" s="23"/>
       <c r="G208" s="30"/>
-      <c r="L208" s="24"/>
-      <c r="M208" s="21"/>
-      <c r="N208" s="21"/>
-      <c r="O208" s="21"/>
     </row>
     <row r="209">
-      <c r="F209" s="23"/>
       <c r="G209" s="30"/>
-      <c r="L209" s="24"/>
-      <c r="M209" s="21"/>
-      <c r="N209" s="21"/>
-      <c r="O209" s="21"/>
     </row>
     <row r="210">
-      <c r="F210" s="23"/>
       <c r="G210" s="30"/>
-      <c r="L210" s="24"/>
-      <c r="M210" s="21"/>
-      <c r="N210" s="21"/>
-      <c r="O210" s="21"/>
     </row>
     <row r="211">
-      <c r="F211" s="23"/>
       <c r="G211" s="30"/>
-      <c r="L211" s="24"/>
-      <c r="M211" s="21"/>
-      <c r="N211" s="21"/>
-      <c r="O211" s="21"/>
     </row>
     <row r="212">
-      <c r="F212" s="23"/>
       <c r="G212" s="30"/>
-      <c r="L212" s="24"/>
-      <c r="M212" s="21"/>
-      <c r="N212" s="21"/>
-      <c r="O212" s="21"/>
     </row>
     <row r="213">
-      <c r="F213" s="23"/>
       <c r="G213" s="30"/>
-      <c r="L213" s="24"/>
-      <c r="M213" s="21"/>
-      <c r="N213" s="21"/>
-      <c r="O213" s="21"/>
     </row>
     <row r="214">
       <c r="G214" s="30"/>
